--- a/Project_SuperHotClone_Scheduling.xlsx
+++ b/Project_SuperHotClone_Scheduling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa820ac491bc8d18/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UE5\SuperHotClone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AB6C9D96-5F05-4F24-9BFD-55F8A618A25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93968CBC-DE0C-49D0-9F75-AB05E012C95F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B79C1-81F8-45D6-BBFF-6A7018066097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1314,7 +1314,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1693,286 +1693,85 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1987,75 +1786,15 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2065,62 +1804,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2167,7 +1888,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2185,13 +1906,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2203,7 +1924,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2218,9 +1939,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2236,20 +1954,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2277,6 +1986,108 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2628,10 +2439,10 @@
   <dimension ref="A1:CF31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2640,12 +2451,10 @@
     <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
     <col min="3" max="4" width="21.5546875" style="1" customWidth="1"/>
     <col min="5" max="24" width="5.109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.109375" style="220" customWidth="1"/>
+    <col min="25" max="25" width="5.109375" style="153" customWidth="1"/>
     <col min="26" max="51" width="5.109375" style="1" customWidth="1"/>
     <col min="52" max="52" width="7.33203125" style="1" customWidth="1"/>
-    <col min="53" max="57" width="5.109375" style="1" customWidth="1"/>
-    <col min="58" max="61" width="5.109375" style="204" customWidth="1"/>
-    <col min="62" max="75" width="5.109375" style="1" customWidth="1"/>
+    <col min="53" max="75" width="5.109375" style="1" customWidth="1"/>
     <col min="76" max="76" width="4.77734375" style="1" customWidth="1"/>
     <col min="77" max="79" width="5.109375" style="1" customWidth="1"/>
     <col min="80" max="80" width="5.77734375" style="1" customWidth="1"/>
@@ -2658,73 +2467,73 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:84" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="127"/>
-      <c r="AN2" s="127"/>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="127"/>
-      <c r="AR2" s="127"/>
-      <c r="AS2" s="127"/>
-      <c r="AT2" s="127"/>
-      <c r="AU2" s="127"/>
-      <c r="AV2" s="127"/>
-      <c r="AW2" s="127"/>
-      <c r="AX2" s="127"/>
-      <c r="AY2" s="127"/>
-      <c r="AZ2" s="127"/>
-      <c r="BA2" s="127"/>
-      <c r="BB2" s="127"/>
-      <c r="BC2" s="127"/>
-      <c r="BD2" s="127"/>
-      <c r="BE2" s="127"/>
-      <c r="BF2" s="127"/>
-      <c r="BG2" s="128"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="238"/>
+      <c r="AA2" s="238"/>
+      <c r="AB2" s="238"/>
+      <c r="AC2" s="238"/>
+      <c r="AD2" s="238"/>
+      <c r="AE2" s="238"/>
+      <c r="AF2" s="238"/>
+      <c r="AG2" s="238"/>
+      <c r="AH2" s="238"/>
+      <c r="AI2" s="238"/>
+      <c r="AJ2" s="238"/>
+      <c r="AK2" s="238"/>
+      <c r="AL2" s="238"/>
+      <c r="AM2" s="238"/>
+      <c r="AN2" s="238"/>
+      <c r="AO2" s="238"/>
+      <c r="AP2" s="238"/>
+      <c r="AQ2" s="238"/>
+      <c r="AR2" s="238"/>
+      <c r="AS2" s="238"/>
+      <c r="AT2" s="238"/>
+      <c r="AU2" s="238"/>
+      <c r="AV2" s="238"/>
+      <c r="AW2" s="238"/>
+      <c r="AX2" s="238"/>
+      <c r="AY2" s="238"/>
+      <c r="AZ2" s="238"/>
+      <c r="BA2" s="238"/>
+      <c r="BB2" s="238"/>
+      <c r="BC2" s="238"/>
+      <c r="BD2" s="238"/>
+      <c r="BE2" s="238"/>
+      <c r="BF2" s="238"/>
+      <c r="BG2" s="240"/>
     </row>
     <row r="3" spans="1:84" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="87" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="86"/>
-      <c r="D3" s="314"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
       <c r="G3" s="86"/>
@@ -2778,146 +2587,132 @@
       <c r="BC3" s="86"/>
       <c r="BD3" s="86"/>
       <c r="BE3" s="86"/>
-      <c r="BF3" s="205"/>
-      <c r="BG3" s="205"/>
-      <c r="BH3" s="206"/>
-      <c r="BI3" s="206"/>
+      <c r="BF3" s="86"/>
+      <c r="BG3" s="86"/>
     </row>
     <row r="4" spans="1:84" s="85" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="315" t="s">
+      <c r="D4" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="BF4" s="206"/>
-      <c r="BG4" s="206"/>
-      <c r="BH4" s="206"/>
-      <c r="BI4" s="206"/>
     </row>
     <row r="5" spans="1:84" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="316"/>
-      <c r="BF5" s="206"/>
-      <c r="BG5" s="206"/>
-      <c r="BH5" s="206"/>
-      <c r="BI5" s="206"/>
+      <c r="D5" s="219"/>
     </row>
     <row r="6" spans="1:84" s="85" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="315" t="s">
+      <c r="D6" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="BF6" s="206"/>
-      <c r="BG6" s="206"/>
-      <c r="BH6" s="206"/>
-      <c r="BI6" s="206"/>
     </row>
     <row r="7" spans="1:84" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="198"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="130" t="s">
+      <c r="C7" s="229"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="129" t="s">
+      <c r="F7" s="242"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="242"/>
+      <c r="M7" s="242"/>
+      <c r="N7" s="242"/>
+      <c r="O7" s="242"/>
+      <c r="P7" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="130"/>
-      <c r="U7" s="130"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="130"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="130"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="130"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="130"/>
-      <c r="AI7" s="130"/>
-      <c r="AJ7" s="130"/>
-      <c r="AK7" s="133"/>
-      <c r="AL7" s="130" t="s">
+      <c r="Q7" s="242"/>
+      <c r="R7" s="242"/>
+      <c r="S7" s="242"/>
+      <c r="T7" s="242"/>
+      <c r="U7" s="242"/>
+      <c r="V7" s="242"/>
+      <c r="W7" s="242"/>
+      <c r="X7" s="242"/>
+      <c r="Y7" s="242"/>
+      <c r="Z7" s="242"/>
+      <c r="AA7" s="242"/>
+      <c r="AB7" s="242"/>
+      <c r="AC7" s="242"/>
+      <c r="AD7" s="242"/>
+      <c r="AE7" s="242"/>
+      <c r="AF7" s="242"/>
+      <c r="AG7" s="242"/>
+      <c r="AH7" s="242"/>
+      <c r="AI7" s="242"/>
+      <c r="AJ7" s="242"/>
+      <c r="AK7" s="244"/>
+      <c r="AL7" s="242" t="s">
         <v>20</v>
       </c>
-      <c r="AM7" s="130"/>
-      <c r="AN7" s="130"/>
-      <c r="AO7" s="130"/>
-      <c r="AP7" s="130"/>
-      <c r="AQ7" s="130"/>
-      <c r="AR7" s="130"/>
-      <c r="AS7" s="130"/>
-      <c r="AT7" s="130"/>
-      <c r="AU7" s="130"/>
-      <c r="AV7" s="130"/>
-      <c r="AW7" s="130"/>
-      <c r="AX7" s="130"/>
-      <c r="AY7" s="130"/>
-      <c r="AZ7" s="130"/>
-      <c r="BA7" s="130"/>
-      <c r="BB7" s="130"/>
-      <c r="BC7" s="130"/>
-      <c r="BD7" s="130"/>
-      <c r="BE7" s="130"/>
-      <c r="BF7" s="133"/>
-      <c r="BG7" s="134" t="s">
+      <c r="AM7" s="242"/>
+      <c r="AN7" s="242"/>
+      <c r="AO7" s="242"/>
+      <c r="AP7" s="242"/>
+      <c r="AQ7" s="242"/>
+      <c r="AR7" s="242"/>
+      <c r="AS7" s="242"/>
+      <c r="AT7" s="242"/>
+      <c r="AU7" s="242"/>
+      <c r="AV7" s="242"/>
+      <c r="AW7" s="242"/>
+      <c r="AX7" s="242"/>
+      <c r="AY7" s="242"/>
+      <c r="AZ7" s="242"/>
+      <c r="BA7" s="242"/>
+      <c r="BB7" s="242"/>
+      <c r="BC7" s="242"/>
+      <c r="BD7" s="242"/>
+      <c r="BE7" s="242"/>
+      <c r="BF7" s="244"/>
+      <c r="BG7" s="245" t="s">
         <v>21</v>
       </c>
-      <c r="BH7" s="130"/>
-      <c r="BI7" s="130"/>
-      <c r="BJ7" s="130"/>
-      <c r="BK7" s="130"/>
-      <c r="BL7" s="130"/>
-      <c r="BM7" s="130"/>
-      <c r="BN7" s="130"/>
-      <c r="BO7" s="130"/>
-      <c r="BP7" s="130"/>
-      <c r="BQ7" s="130"/>
-      <c r="BR7" s="130"/>
-      <c r="BS7" s="130"/>
-      <c r="BT7" s="130"/>
-      <c r="BU7" s="130"/>
-      <c r="BV7" s="130"/>
-      <c r="BW7" s="130"/>
-      <c r="BX7" s="130"/>
-      <c r="BY7" s="130"/>
-      <c r="BZ7" s="130"/>
-      <c r="CA7" s="131"/>
-      <c r="CB7" s="129" t="s">
+      <c r="BH7" s="242"/>
+      <c r="BI7" s="242"/>
+      <c r="BJ7" s="242"/>
+      <c r="BK7" s="242"/>
+      <c r="BL7" s="242"/>
+      <c r="BM7" s="242"/>
+      <c r="BN7" s="242"/>
+      <c r="BO7" s="242"/>
+      <c r="BP7" s="242"/>
+      <c r="BQ7" s="242"/>
+      <c r="BR7" s="242"/>
+      <c r="BS7" s="242"/>
+      <c r="BT7" s="242"/>
+      <c r="BU7" s="242"/>
+      <c r="BV7" s="242"/>
+      <c r="BW7" s="242"/>
+      <c r="BX7" s="242"/>
+      <c r="BY7" s="242"/>
+      <c r="BZ7" s="242"/>
+      <c r="CA7" s="243"/>
+      <c r="CB7" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="CC7" s="130"/>
-      <c r="CD7" s="130"/>
-      <c r="CE7" s="130"/>
-      <c r="CF7" s="131"/>
+      <c r="CC7" s="242"/>
+      <c r="CD7" s="242"/>
+      <c r="CE7" s="242"/>
+      <c r="CF7" s="243"/>
     </row>
     <row r="8" spans="1:84" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="241"/>
-      <c r="C8" s="242"/>
-      <c r="D8" s="243"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="43">
         <v>17</v>
       </c>
@@ -2936,7 +2731,7 @@
       <c r="J8" s="43">
         <v>24</v>
       </c>
-      <c r="K8" s="239">
+      <c r="K8" s="159">
         <v>25</v>
       </c>
       <c r="L8" s="43">
@@ -2948,7 +2743,7 @@
       <c r="N8" s="43">
         <v>28</v>
       </c>
-      <c r="O8" s="228">
+      <c r="O8" s="157">
         <v>31</v>
       </c>
       <c r="P8" s="42">
@@ -2960,10 +2755,10 @@
       <c r="R8" s="43">
         <v>3</v>
       </c>
-      <c r="S8" s="201">
+      <c r="S8" s="140">
         <v>4</v>
       </c>
-      <c r="T8" s="229">
+      <c r="T8" s="158">
         <v>7</v>
       </c>
       <c r="U8" s="43">
@@ -2978,7 +2773,7 @@
       <c r="X8" s="43">
         <v>11</v>
       </c>
-      <c r="Y8" s="221">
+      <c r="Y8" s="154">
         <v>14</v>
       </c>
       <c r="Z8" s="43">
@@ -3077,16 +2872,16 @@
       <c r="BE8" s="43">
         <v>28</v>
       </c>
-      <c r="BF8" s="207">
+      <c r="BF8" s="143">
         <v>29</v>
       </c>
-      <c r="BG8" s="208">
+      <c r="BG8" s="144">
         <v>30</v>
       </c>
-      <c r="BH8" s="209">
+      <c r="BH8" s="145">
         <v>2</v>
       </c>
-      <c r="BI8" s="209">
+      <c r="BI8" s="145">
         <v>3</v>
       </c>
       <c r="BJ8" s="65">
@@ -3150,262 +2945,262 @@
       <c r="CF8" s="44"/>
     </row>
     <row r="9" spans="1:84" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="276" t="s">
+      <c r="B9" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="277" t="s">
+      <c r="C9" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="277" t="s">
+      <c r="D9" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="278" t="s">
+      <c r="E9" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="278" t="s">
+      <c r="F9" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="278" t="s">
+      <c r="G9" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="278" t="s">
+      <c r="H9" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="279" t="s">
+      <c r="I9" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="278" t="s">
+      <c r="J9" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="280" t="s">
+      <c r="K9" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="278" t="s">
+      <c r="L9" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="278" t="s">
+      <c r="M9" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="281" t="s">
+      <c r="N9" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="282" t="s">
+      <c r="O9" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="283" t="s">
+      <c r="P9" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="284" t="s">
+      <c r="Q9" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="285" t="s">
+      <c r="R9" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="286" t="s">
+      <c r="S9" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="280" t="s">
+      <c r="T9" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="U9" s="278" t="s">
+      <c r="U9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="V9" s="278" t="s">
+      <c r="V9" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="W9" s="278" t="s">
+      <c r="W9" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="X9" s="279" t="s">
+      <c r="X9" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="Y9" s="287" t="s">
+      <c r="Y9" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="278" t="s">
+      <c r="Z9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="AA9" s="278" t="s">
+      <c r="AA9" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="AB9" s="278" t="s">
+      <c r="AB9" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AC9" s="279" t="s">
+      <c r="AC9" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="AD9" s="278" t="s">
+      <c r="AD9" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="AE9" s="278" t="s">
+      <c r="AE9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="AF9" s="278" t="s">
+      <c r="AF9" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="AG9" s="278" t="s">
+      <c r="AG9" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AH9" s="279" t="s">
+      <c r="AH9" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="278" t="s">
+      <c r="AI9" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="AJ9" s="278" t="s">
+      <c r="AJ9" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="AK9" s="278" t="s">
+      <c r="AK9" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="AL9" s="278" t="s">
+      <c r="AL9" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AM9" s="279" t="s">
+      <c r="AM9" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="AN9" s="283" t="s">
+      <c r="AN9" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="AO9" s="283" t="s">
+      <c r="AO9" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="AP9" s="283" t="s">
+      <c r="AP9" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="AQ9" s="278" t="s">
+      <c r="AQ9" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AR9" s="279" t="s">
+      <c r="AR9" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="AS9" s="278" t="s">
+      <c r="AS9" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="AT9" s="278" t="s">
+      <c r="AT9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="AU9" s="288" t="s">
+      <c r="AU9" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="AV9" s="278" t="s">
+      <c r="AV9" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AW9" s="279" t="s">
+      <c r="AW9" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="AX9" s="278" t="s">
+      <c r="AX9" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="AY9" s="278" t="s">
+      <c r="AY9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="AZ9" s="289" t="s">
+      <c r="AZ9" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="BA9" s="278" t="s">
+      <c r="BA9" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="279" t="s">
+      <c r="BB9" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="BC9" s="278" t="s">
+      <c r="BC9" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="BD9" s="278" t="s">
+      <c r="BD9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="BE9" s="278" t="s">
+      <c r="BE9" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="BF9" s="290" t="s">
+      <c r="BF9" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="BG9" s="291" t="s">
+      <c r="BG9" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="BH9" s="292" t="s">
+      <c r="BH9" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="BI9" s="292" t="s">
+      <c r="BI9" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="BJ9" s="283" t="s">
+      <c r="BJ9" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="BK9" s="278" t="s">
+      <c r="BK9" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="BL9" s="279" t="s">
+      <c r="BL9" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="BM9" s="278" t="s">
+      <c r="BM9" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="BN9" s="278" t="s">
+      <c r="BN9" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="BO9" s="278" t="s">
+      <c r="BO9" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="BP9" s="278" t="s">
+      <c r="BP9" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="BQ9" s="279" t="s">
+      <c r="BQ9" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="BR9" s="278" t="s">
+      <c r="BR9" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="BS9" s="278" t="s">
+      <c r="BS9" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="BT9" s="278" t="s">
+      <c r="BT9" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="BU9" s="278" t="s">
+      <c r="BU9" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="BV9" s="279" t="s">
+      <c r="BV9" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="BW9" s="293" t="s">
+      <c r="BW9" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="BX9" s="278" t="s">
+      <c r="BX9" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="BY9" s="278" t="s">
+      <c r="BY9" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="BZ9" s="294" t="s">
+      <c r="BZ9" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="CA9" s="295" t="s">
+      <c r="CA9" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="CB9" s="278" t="s">
+      <c r="CB9" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="CC9" s="289" t="s">
+      <c r="CC9" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="CD9" s="278" t="s">
+      <c r="CD9" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="CE9" s="278" t="s">
+      <c r="CE9" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="CF9" s="279" t="s">
+      <c r="CF9" s="186" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:84" s="299" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="298"/>
-      <c r="B10" s="244" t="s">
+    <row r="10" spans="1:84" s="206" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="205"/>
+      <c r="B10" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="244" t="s">
+      <c r="C10" s="234" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="49" t="s">
@@ -3417,50 +3212,50 @@
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="236" t="s">
+      <c r="K10" s="255" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="313"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="233" t="s">
+      <c r="L10" s="216"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="249" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="139"/>
-      <c r="Q10" s="140"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="230" t="s">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="252" t="s">
         <v>30</v>
       </c>
-      <c r="U10" s="142"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="143"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="225" t="s">
+      <c r="U10" s="7"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="139"/>
-      <c r="AE10" s="137"/>
-      <c r="AF10" s="137"/>
-      <c r="AG10" s="142"/>
-      <c r="AH10" s="138"/>
-      <c r="AI10" s="139"/>
-      <c r="AJ10" s="144"/>
-      <c r="AK10" s="137"/>
-      <c r="AL10" s="142"/>
-      <c r="AM10" s="138"/>
-      <c r="AN10" s="145"/>
-      <c r="AO10" s="146"/>
-      <c r="AP10" s="146"/>
-      <c r="AQ10" s="142"/>
-      <c r="AR10" s="138"/>
-      <c r="AS10" s="139"/>
-      <c r="AT10" s="137"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="5"/>
       <c r="AU10" s="79"/>
       <c r="AV10" s="7"/>
       <c r="AW10" s="3"/>
@@ -3472,10 +3267,10 @@
       <c r="BC10" s="8"/>
       <c r="BD10" s="5"/>
       <c r="BE10" s="5"/>
-      <c r="BF10" s="142"/>
-      <c r="BG10" s="210"/>
-      <c r="BH10" s="145"/>
-      <c r="BI10" s="146"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="146"/>
+      <c r="BH10" s="71"/>
+      <c r="BI10" s="66"/>
       <c r="BJ10" s="66"/>
       <c r="BK10" s="7"/>
       <c r="BL10" s="3"/>
@@ -3500,10 +3295,10 @@
       <c r="CE10" s="4"/>
       <c r="CF10" s="3"/>
     </row>
-    <row r="11" spans="1:84" s="301" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="300"/>
-      <c r="B11" s="245"/>
-      <c r="C11" s="245"/>
+    <row r="11" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="207"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
       <c r="D11" s="50" t="s">
         <v>34</v>
       </c>
@@ -3513,42 +3308,42 @@
       <c r="H11" s="16"/>
       <c r="I11" s="10"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="313"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="234"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="150"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="199"/>
-      <c r="T11" s="231"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="226"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
-      <c r="AB11" s="147"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="149"/>
-      <c r="AE11" s="147"/>
-      <c r="AF11" s="147"/>
-      <c r="AG11" s="152"/>
-      <c r="AH11" s="148"/>
-      <c r="AI11" s="149"/>
-      <c r="AJ11" s="154"/>
-      <c r="AK11" s="147"/>
-      <c r="AL11" s="152"/>
-      <c r="AM11" s="148"/>
-      <c r="AN11" s="155"/>
-      <c r="AO11" s="156"/>
-      <c r="AP11" s="156"/>
-      <c r="AQ11" s="152"/>
-      <c r="AR11" s="148"/>
-      <c r="AS11" s="154"/>
-      <c r="AT11" s="147"/>
+      <c r="K11" s="256"/>
+      <c r="L11" s="216"/>
+      <c r="M11" s="216"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="250"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="253"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="247"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="132"/>
+      <c r="AO11" s="75"/>
+      <c r="AP11" s="75"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="18"/>
       <c r="AU11" s="82"/>
       <c r="AV11" s="21"/>
       <c r="AW11" s="10"/>
@@ -3560,10 +3355,10 @@
       <c r="BC11" s="17"/>
       <c r="BD11" s="18"/>
       <c r="BE11" s="18"/>
-      <c r="BF11" s="152"/>
-      <c r="BG11" s="211"/>
-      <c r="BH11" s="155"/>
-      <c r="BI11" s="156"/>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="147"/>
+      <c r="BH11" s="132"/>
+      <c r="BI11" s="75"/>
       <c r="BJ11" s="75"/>
       <c r="BK11" s="21"/>
       <c r="BL11" s="10"/>
@@ -3588,10 +3383,10 @@
       <c r="CE11" s="16"/>
       <c r="CF11" s="10"/>
     </row>
-    <row r="12" spans="1:84" s="301" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="300"/>
-      <c r="B12" s="245"/>
-      <c r="C12" s="246"/>
+    <row r="12" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="207"/>
+      <c r="B12" s="235"/>
+      <c r="C12" s="236"/>
       <c r="D12" s="51" t="s">
         <v>33</v>
       </c>
@@ -3601,42 +3396,42 @@
       <c r="H12" s="54"/>
       <c r="I12" s="55"/>
       <c r="J12" s="60"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="313"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="234"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="200"/>
-      <c r="T12" s="231"/>
-      <c r="U12" s="162"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="163"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="226"/>
-      <c r="Z12" s="157"/>
-      <c r="AA12" s="157"/>
-      <c r="AB12" s="157"/>
-      <c r="AC12" s="158"/>
-      <c r="AD12" s="159"/>
-      <c r="AE12" s="157"/>
-      <c r="AF12" s="157"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="158"/>
-      <c r="AI12" s="159"/>
-      <c r="AJ12" s="164"/>
-      <c r="AK12" s="157"/>
-      <c r="AL12" s="162"/>
-      <c r="AM12" s="158"/>
-      <c r="AN12" s="165"/>
-      <c r="AO12" s="160"/>
-      <c r="AP12" s="160"/>
-      <c r="AQ12" s="162"/>
-      <c r="AR12" s="158"/>
-      <c r="AS12" s="164"/>
-      <c r="AT12" s="157"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="216"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="250"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="253"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="247"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="61"/>
+      <c r="AL12" s="62"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="135"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="62"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="60"/>
+      <c r="AT12" s="61"/>
       <c r="AU12" s="83"/>
       <c r="AV12" s="62"/>
       <c r="AW12" s="55"/>
@@ -3648,10 +3443,10 @@
       <c r="BC12" s="60"/>
       <c r="BD12" s="61"/>
       <c r="BE12" s="61"/>
-      <c r="BF12" s="162"/>
-      <c r="BG12" s="212"/>
-      <c r="BH12" s="165"/>
-      <c r="BI12" s="160"/>
+      <c r="BF12" s="62"/>
+      <c r="BG12" s="148"/>
+      <c r="BH12" s="135"/>
+      <c r="BI12" s="77"/>
       <c r="BJ12" s="77"/>
       <c r="BK12" s="62"/>
       <c r="BL12" s="55"/>
@@ -3676,57 +3471,57 @@
       <c r="CE12" s="54"/>
       <c r="CF12" s="55"/>
     </row>
-    <row r="13" spans="1:84" s="301" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="300"/>
-      <c r="B13" s="245"/>
-      <c r="C13" s="244" t="s">
+    <row r="13" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="207"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="273" t="s">
+      <c r="D13" s="180" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="320"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="317"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="220"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="234"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="231"/>
-      <c r="U13" s="169"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="170"/>
-      <c r="X13" s="172"/>
-      <c r="Y13" s="226"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="142"/>
-      <c r="AH13" s="138"/>
-      <c r="AI13" s="139"/>
-      <c r="AJ13" s="144"/>
-      <c r="AK13" s="137"/>
-      <c r="AL13" s="142"/>
-      <c r="AM13" s="138"/>
-      <c r="AN13" s="145"/>
-      <c r="AO13" s="146"/>
-      <c r="AP13" s="146"/>
-      <c r="AQ13" s="142"/>
-      <c r="AR13" s="138"/>
-      <c r="AS13" s="139"/>
-      <c r="AT13" s="137"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="250"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="253"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="247"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="71"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="5"/>
       <c r="AU13" s="79"/>
       <c r="AV13" s="7"/>
       <c r="AW13" s="3"/>
@@ -3738,10 +3533,10 @@
       <c r="BC13" s="8"/>
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
-      <c r="BF13" s="142"/>
-      <c r="BG13" s="213"/>
-      <c r="BH13" s="145"/>
-      <c r="BI13" s="146"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="149"/>
+      <c r="BH13" s="71"/>
+      <c r="BI13" s="66"/>
       <c r="BJ13" s="66"/>
       <c r="BK13" s="7"/>
       <c r="BL13" s="3"/>
@@ -3766,55 +3561,55 @@
       <c r="CE13" s="4"/>
       <c r="CF13" s="3"/>
     </row>
-    <row r="14" spans="1:84" s="301" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="300"/>
-      <c r="B14" s="245"/>
-      <c r="C14" s="245"/>
-      <c r="D14" s="271" t="s">
+    <row r="14" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="207"/>
+      <c r="B14" s="235"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="178" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="318"/>
+      <c r="G14" s="221"/>
       <c r="H14" s="25"/>
       <c r="I14" s="27"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="172"/>
-      <c r="O14" s="234"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="174"/>
-      <c r="R14" s="171"/>
-      <c r="S14" s="171"/>
-      <c r="T14" s="231"/>
-      <c r="U14" s="175"/>
-      <c r="V14" s="171"/>
-      <c r="W14" s="176"/>
-      <c r="X14" s="172"/>
-      <c r="Y14" s="226"/>
-      <c r="Z14" s="178"/>
-      <c r="AA14" s="178"/>
-      <c r="AB14" s="178"/>
-      <c r="AC14" s="172"/>
-      <c r="AD14" s="179"/>
-      <c r="AE14" s="178"/>
-      <c r="AF14" s="178"/>
-      <c r="AG14" s="180"/>
-      <c r="AH14" s="172"/>
-      <c r="AI14" s="179"/>
-      <c r="AJ14" s="177"/>
-      <c r="AK14" s="178"/>
-      <c r="AL14" s="180"/>
-      <c r="AM14" s="172"/>
-      <c r="AN14" s="181"/>
-      <c r="AO14" s="182"/>
-      <c r="AP14" s="182"/>
-      <c r="AQ14" s="180"/>
-      <c r="AR14" s="172"/>
-      <c r="AS14" s="179"/>
-      <c r="AT14" s="178"/>
+      <c r="K14" s="256"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="250"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="253"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="247"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="72"/>
+      <c r="AO14" s="67"/>
+      <c r="AP14" s="67"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="32"/>
       <c r="AU14" s="80"/>
       <c r="AV14" s="35"/>
       <c r="AW14" s="27"/>
@@ -3826,10 +3621,10 @@
       <c r="BC14" s="34"/>
       <c r="BD14" s="32"/>
       <c r="BE14" s="32"/>
-      <c r="BF14" s="180"/>
-      <c r="BG14" s="214"/>
-      <c r="BH14" s="181"/>
-      <c r="BI14" s="182"/>
+      <c r="BF14" s="35"/>
+      <c r="BG14" s="150"/>
+      <c r="BH14" s="72"/>
+      <c r="BI14" s="67"/>
       <c r="BJ14" s="67"/>
       <c r="BK14" s="35"/>
       <c r="BL14" s="27"/>
@@ -3854,99 +3649,99 @@
       <c r="CE14" s="25"/>
       <c r="CF14" s="27"/>
     </row>
-    <row r="15" spans="1:84" s="301" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="300"/>
-      <c r="B15" s="245"/>
-      <c r="C15" s="245"/>
-      <c r="D15" s="272" t="s">
+    <row r="15" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="207"/>
+      <c r="B15" s="235"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="247"/>
-      <c r="F15" s="248"/>
-      <c r="G15" s="248"/>
-      <c r="H15" s="248"/>
-      <c r="I15" s="249"/>
-      <c r="J15" s="247"/>
-      <c r="K15" s="237"/>
-      <c r="L15" s="250"/>
-      <c r="M15" s="250"/>
-      <c r="N15" s="251"/>
-      <c r="O15" s="234"/>
-      <c r="P15" s="252"/>
-      <c r="Q15" s="253"/>
-      <c r="R15" s="250"/>
-      <c r="S15" s="250"/>
-      <c r="T15" s="231"/>
-      <c r="U15" s="254"/>
-      <c r="V15" s="250"/>
-      <c r="W15" s="255"/>
-      <c r="X15" s="251"/>
-      <c r="Y15" s="226"/>
-      <c r="Z15" s="256"/>
-      <c r="AA15" s="256"/>
-      <c r="AB15" s="256"/>
-      <c r="AC15" s="257"/>
-      <c r="AD15" s="258"/>
-      <c r="AE15" s="256"/>
-      <c r="AF15" s="256"/>
-      <c r="AG15" s="259"/>
-      <c r="AH15" s="257"/>
-      <c r="AI15" s="258"/>
-      <c r="AJ15" s="260"/>
-      <c r="AK15" s="256"/>
-      <c r="AL15" s="259"/>
-      <c r="AM15" s="251"/>
-      <c r="AN15" s="261"/>
-      <c r="AO15" s="262"/>
-      <c r="AP15" s="262"/>
-      <c r="AQ15" s="259"/>
-      <c r="AR15" s="251"/>
-      <c r="AS15" s="258"/>
-      <c r="AT15" s="256"/>
-      <c r="AU15" s="263"/>
-      <c r="AV15" s="264"/>
-      <c r="AW15" s="249"/>
-      <c r="AX15" s="265"/>
-      <c r="AY15" s="266"/>
-      <c r="AZ15" s="266"/>
-      <c r="BA15" s="264"/>
-      <c r="BB15" s="249"/>
-      <c r="BC15" s="265"/>
-      <c r="BD15" s="266"/>
-      <c r="BE15" s="266"/>
-      <c r="BF15" s="259"/>
-      <c r="BG15" s="267"/>
-      <c r="BH15" s="261"/>
-      <c r="BI15" s="262"/>
-      <c r="BJ15" s="268"/>
-      <c r="BK15" s="264"/>
-      <c r="BL15" s="249"/>
-      <c r="BM15" s="265"/>
-      <c r="BN15" s="266"/>
-      <c r="BO15" s="266"/>
-      <c r="BP15" s="264"/>
-      <c r="BQ15" s="249"/>
-      <c r="BR15" s="265"/>
-      <c r="BS15" s="266"/>
-      <c r="BT15" s="266"/>
-      <c r="BU15" s="264"/>
-      <c r="BV15" s="249"/>
-      <c r="BW15" s="265"/>
-      <c r="BX15" s="266"/>
-      <c r="BY15" s="266"/>
-      <c r="BZ15" s="266"/>
-      <c r="CA15" s="269"/>
-      <c r="CB15" s="247"/>
-      <c r="CC15" s="248"/>
-      <c r="CD15" s="248"/>
-      <c r="CE15" s="248"/>
-      <c r="CF15" s="249"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="250"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="161"/>
+      <c r="S15" s="161"/>
+      <c r="T15" s="253"/>
+      <c r="U15" s="165"/>
+      <c r="V15" s="161"/>
+      <c r="W15" s="166"/>
+      <c r="X15" s="162"/>
+      <c r="Y15" s="247"/>
+      <c r="Z15" s="167"/>
+      <c r="AA15" s="167"/>
+      <c r="AB15" s="167"/>
+      <c r="AC15" s="168"/>
+      <c r="AD15" s="169"/>
+      <c r="AE15" s="167"/>
+      <c r="AF15" s="167"/>
+      <c r="AG15" s="170"/>
+      <c r="AH15" s="168"/>
+      <c r="AI15" s="169"/>
+      <c r="AJ15" s="171"/>
+      <c r="AK15" s="167"/>
+      <c r="AL15" s="170"/>
+      <c r="AM15" s="162"/>
+      <c r="AN15" s="172"/>
+      <c r="AO15" s="173"/>
+      <c r="AP15" s="173"/>
+      <c r="AQ15" s="170"/>
+      <c r="AR15" s="162"/>
+      <c r="AS15" s="169"/>
+      <c r="AT15" s="167"/>
+      <c r="AU15" s="174"/>
+      <c r="AV15" s="170"/>
+      <c r="AW15" s="162"/>
+      <c r="AX15" s="169"/>
+      <c r="AY15" s="167"/>
+      <c r="AZ15" s="167"/>
+      <c r="BA15" s="170"/>
+      <c r="BB15" s="162"/>
+      <c r="BC15" s="169"/>
+      <c r="BD15" s="167"/>
+      <c r="BE15" s="167"/>
+      <c r="BF15" s="170"/>
+      <c r="BG15" s="175"/>
+      <c r="BH15" s="172"/>
+      <c r="BI15" s="173"/>
+      <c r="BJ15" s="173"/>
+      <c r="BK15" s="170"/>
+      <c r="BL15" s="162"/>
+      <c r="BM15" s="169"/>
+      <c r="BN15" s="167"/>
+      <c r="BO15" s="167"/>
+      <c r="BP15" s="170"/>
+      <c r="BQ15" s="162"/>
+      <c r="BR15" s="169"/>
+      <c r="BS15" s="167"/>
+      <c r="BT15" s="167"/>
+      <c r="BU15" s="170"/>
+      <c r="BV15" s="162"/>
+      <c r="BW15" s="169"/>
+      <c r="BX15" s="167"/>
+      <c r="BY15" s="167"/>
+      <c r="BZ15" s="167"/>
+      <c r="CA15" s="176"/>
+      <c r="CB15" s="160"/>
+      <c r="CC15" s="161"/>
+      <c r="CD15" s="161"/>
+      <c r="CE15" s="161"/>
+      <c r="CF15" s="162"/>
     </row>
-    <row r="16" spans="1:84" s="270" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="302"/>
-      <c r="B16" s="245"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="271" t="s">
+    <row r="16" spans="1:84" s="177" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="208"/>
+      <c r="B16" s="235"/>
+      <c r="C16" s="235"/>
+      <c r="D16" s="178" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="28"/>
@@ -3955,42 +3750,42 @@
       <c r="H16" s="25"/>
       <c r="I16" s="27"/>
       <c r="J16" s="28"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="172"/>
-      <c r="O16" s="234"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="171"/>
-      <c r="S16" s="171"/>
-      <c r="T16" s="231"/>
-      <c r="U16" s="171"/>
-      <c r="V16" s="151"/>
-      <c r="W16" s="171"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="226"/>
-      <c r="Z16" s="178"/>
-      <c r="AA16" s="178"/>
-      <c r="AB16" s="178"/>
-      <c r="AC16" s="194"/>
-      <c r="AD16" s="179"/>
-      <c r="AE16" s="178"/>
-      <c r="AF16" s="178"/>
-      <c r="AG16" s="178"/>
-      <c r="AH16" s="194"/>
-      <c r="AI16" s="179"/>
-      <c r="AJ16" s="177"/>
-      <c r="AK16" s="178"/>
-      <c r="AL16" s="178"/>
-      <c r="AM16" s="194"/>
-      <c r="AN16" s="181"/>
-      <c r="AO16" s="182"/>
-      <c r="AP16" s="182"/>
-      <c r="AQ16" s="178"/>
-      <c r="AR16" s="194"/>
-      <c r="AS16" s="179"/>
-      <c r="AT16" s="178"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="250"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="253"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="247"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="67"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="33"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="32"/>
       <c r="AU16" s="80"/>
       <c r="AV16" s="32"/>
       <c r="AW16" s="33"/>
@@ -4002,10 +3797,10 @@
       <c r="BC16" s="34"/>
       <c r="BD16" s="32"/>
       <c r="BE16" s="32"/>
-      <c r="BF16" s="178"/>
-      <c r="BG16" s="215"/>
-      <c r="BH16" s="181"/>
-      <c r="BI16" s="182"/>
+      <c r="BF16" s="32"/>
+      <c r="BG16" s="151"/>
+      <c r="BH16" s="72"/>
+      <c r="BI16" s="67"/>
       <c r="BJ16" s="32"/>
       <c r="BK16" s="32"/>
       <c r="BL16" s="33"/>
@@ -4030,11 +3825,11 @@
       <c r="CE16" s="25"/>
       <c r="CF16" s="27"/>
     </row>
-    <row r="17" spans="1:84" s="301" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="300"/>
-      <c r="B17" s="245"/>
-      <c r="C17" s="245"/>
-      <c r="D17" s="274" t="s">
+    <row r="17" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="207"/>
+      <c r="B17" s="235"/>
+      <c r="C17" s="235"/>
+      <c r="D17" s="181" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="97"/>
@@ -4043,42 +3838,42 @@
       <c r="H17" s="16"/>
       <c r="I17" s="10"/>
       <c r="J17" s="97"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="234"/>
-      <c r="P17" s="188"/>
-      <c r="Q17" s="189"/>
-      <c r="R17" s="187"/>
-      <c r="S17" s="187"/>
-      <c r="T17" s="231"/>
-      <c r="U17" s="187"/>
-      <c r="V17" s="190"/>
-      <c r="W17" s="187"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="226"/>
-      <c r="Z17" s="147"/>
-      <c r="AA17" s="147"/>
-      <c r="AB17" s="147"/>
-      <c r="AC17" s="191"/>
-      <c r="AD17" s="149"/>
-      <c r="AE17" s="147"/>
-      <c r="AF17" s="147"/>
-      <c r="AG17" s="147"/>
-      <c r="AH17" s="191"/>
-      <c r="AI17" s="149"/>
-      <c r="AJ17" s="154"/>
-      <c r="AK17" s="147"/>
-      <c r="AL17" s="147"/>
-      <c r="AM17" s="192"/>
-      <c r="AN17" s="193"/>
-      <c r="AO17" s="156"/>
-      <c r="AP17" s="156"/>
-      <c r="AQ17" s="147"/>
-      <c r="AR17" s="191"/>
-      <c r="AS17" s="149"/>
-      <c r="AT17" s="147"/>
+      <c r="K17" s="256"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="250"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="253"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="136"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="247"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="23"/>
+      <c r="AN17" s="101"/>
+      <c r="AO17" s="75"/>
+      <c r="AP17" s="75"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="18"/>
       <c r="AU17" s="82"/>
       <c r="AV17" s="18"/>
       <c r="AW17" s="19"/>
@@ -4090,10 +3885,10 @@
       <c r="BC17" s="20"/>
       <c r="BD17" s="18"/>
       <c r="BE17" s="18"/>
-      <c r="BF17" s="147"/>
-      <c r="BG17" s="211"/>
-      <c r="BH17" s="193"/>
-      <c r="BI17" s="156"/>
+      <c r="BF17" s="18"/>
+      <c r="BG17" s="147"/>
+      <c r="BH17" s="101"/>
+      <c r="BI17" s="75"/>
       <c r="BJ17" s="18"/>
       <c r="BK17" s="18"/>
       <c r="BL17" s="19"/>
@@ -4118,11 +3913,11 @@
       <c r="CE17" s="16"/>
       <c r="CF17" s="10"/>
     </row>
-    <row r="18" spans="1:84" s="304" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="303"/>
-      <c r="B18" s="245"/>
-      <c r="C18" s="246"/>
-      <c r="D18" s="275" t="s">
+    <row r="18" spans="1:84" s="210" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="209"/>
+      <c r="B18" s="235"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="182" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="56"/>
@@ -4131,42 +3926,42 @@
       <c r="H18" s="54"/>
       <c r="I18" s="55"/>
       <c r="J18" s="56"/>
-      <c r="K18" s="237"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="234"/>
-      <c r="P18" s="184"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="231"/>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="226"/>
-      <c r="Z18" s="157"/>
-      <c r="AA18" s="157"/>
-      <c r="AB18" s="157"/>
-      <c r="AC18" s="200"/>
-      <c r="AD18" s="159"/>
-      <c r="AE18" s="157"/>
-      <c r="AF18" s="157"/>
-      <c r="AG18" s="157"/>
-      <c r="AH18" s="200"/>
-      <c r="AI18" s="159"/>
-      <c r="AJ18" s="164"/>
-      <c r="AK18" s="157"/>
-      <c r="AL18" s="157"/>
-      <c r="AM18" s="161"/>
-      <c r="AN18" s="186"/>
-      <c r="AO18" s="160"/>
-      <c r="AP18" s="160"/>
-      <c r="AQ18" s="157"/>
-      <c r="AR18" s="200"/>
-      <c r="AS18" s="159"/>
-      <c r="AT18" s="157"/>
+      <c r="K18" s="256"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="250"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="253"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="247"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="133"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="77"/>
+      <c r="AP18" s="77"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="61"/>
       <c r="AU18" s="83"/>
       <c r="AV18" s="61"/>
       <c r="AW18" s="64"/>
@@ -4178,10 +3973,10 @@
       <c r="BC18" s="63"/>
       <c r="BD18" s="61"/>
       <c r="BE18" s="61"/>
-      <c r="BF18" s="157"/>
-      <c r="BG18" s="212"/>
-      <c r="BH18" s="186"/>
-      <c r="BI18" s="160"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="148"/>
+      <c r="BH18" s="76"/>
+      <c r="BI18" s="77"/>
       <c r="BJ18" s="61"/>
       <c r="BK18" s="61"/>
       <c r="BL18" s="64"/>
@@ -4207,11 +4002,11 @@
       <c r="CF18" s="55"/>
     </row>
     <row r="19" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="245"/>
-      <c r="C19" s="244" t="s">
+      <c r="B19" s="235"/>
+      <c r="C19" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="305" t="s">
+      <c r="D19" s="211" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="97"/>
@@ -4220,45 +4015,45 @@
       <c r="H19" s="16"/>
       <c r="I19" s="10"/>
       <c r="J19" s="97"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="234"/>
-      <c r="P19" s="188"/>
-      <c r="Q19" s="189"/>
-      <c r="R19" s="187"/>
-      <c r="S19" s="187"/>
-      <c r="T19" s="231"/>
-      <c r="U19" s="187"/>
-      <c r="V19" s="187"/>
-      <c r="W19" s="187"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="226"/>
-      <c r="Z19" s="147"/>
-      <c r="AA19" s="147"/>
-      <c r="AB19" s="147"/>
-      <c r="AC19" s="191"/>
-      <c r="AD19" s="149"/>
-      <c r="AE19" s="147"/>
-      <c r="AF19" s="147"/>
-      <c r="AG19" s="147"/>
-      <c r="AH19" s="191"/>
-      <c r="AI19" s="149"/>
-      <c r="AJ19" s="154"/>
-      <c r="AK19" s="147"/>
-      <c r="AL19" s="147"/>
-      <c r="AM19" s="191"/>
-      <c r="AN19" s="193"/>
-      <c r="AO19" s="156"/>
-      <c r="AP19" s="156"/>
-      <c r="AQ19" s="147"/>
-      <c r="AR19" s="296"/>
-      <c r="AS19" s="149"/>
-      <c r="AT19" s="147"/>
+      <c r="K19" s="256"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="250"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="253"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="247"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="101"/>
+      <c r="AO19" s="75"/>
+      <c r="AP19" s="75"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="203"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="18"/>
       <c r="AU19" s="82"/>
       <c r="AV19" s="103"/>
-      <c r="AW19" s="297"/>
+      <c r="AW19" s="204"/>
       <c r="AX19" s="102"/>
       <c r="AY19" s="103"/>
       <c r="AZ19" s="18"/>
@@ -4267,10 +4062,10 @@
       <c r="BC19" s="20"/>
       <c r="BD19" s="18"/>
       <c r="BE19" s="18"/>
-      <c r="BF19" s="147"/>
-      <c r="BG19" s="211"/>
-      <c r="BH19" s="193"/>
-      <c r="BI19" s="156"/>
+      <c r="BF19" s="18"/>
+      <c r="BG19" s="147"/>
+      <c r="BH19" s="101"/>
+      <c r="BI19" s="75"/>
       <c r="BJ19" s="75"/>
       <c r="BK19" s="18"/>
       <c r="BL19" s="19"/>
@@ -4296,9 +4091,9 @@
       <c r="CF19" s="10"/>
     </row>
     <row r="20" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="245"/>
-      <c r="C20" s="245"/>
-      <c r="D20" s="306" t="s">
+      <c r="B20" s="235"/>
+      <c r="C20" s="235"/>
+      <c r="D20" s="212" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="28"/>
@@ -4307,42 +4102,42 @@
       <c r="H20" s="25"/>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="237"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="172"/>
-      <c r="O20" s="234"/>
-      <c r="P20" s="173"/>
-      <c r="Q20" s="174"/>
-      <c r="R20" s="171"/>
-      <c r="S20" s="171"/>
-      <c r="T20" s="231"/>
-      <c r="U20" s="171"/>
-      <c r="V20" s="171"/>
-      <c r="W20" s="171"/>
-      <c r="X20" s="172"/>
-      <c r="Y20" s="226"/>
-      <c r="Z20" s="178"/>
-      <c r="AA20" s="178"/>
-      <c r="AB20" s="178"/>
-      <c r="AC20" s="194"/>
-      <c r="AD20" s="179"/>
-      <c r="AE20" s="178"/>
-      <c r="AF20" s="178"/>
-      <c r="AG20" s="178"/>
-      <c r="AH20" s="194"/>
-      <c r="AI20" s="179"/>
-      <c r="AJ20" s="177"/>
-      <c r="AK20" s="178"/>
-      <c r="AL20" s="178"/>
-      <c r="AM20" s="194"/>
-      <c r="AN20" s="181"/>
-      <c r="AO20" s="182"/>
-      <c r="AP20" s="182"/>
-      <c r="AQ20" s="178"/>
-      <c r="AR20" s="195"/>
-      <c r="AS20" s="179"/>
-      <c r="AT20" s="178"/>
+      <c r="K20" s="256"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="250"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="253"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="247"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="72"/>
+      <c r="AO20" s="67"/>
+      <c r="AP20" s="67"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="137"/>
+      <c r="AS20" s="34"/>
+      <c r="AT20" s="32"/>
       <c r="AU20" s="80"/>
       <c r="AV20" s="123"/>
       <c r="AW20" s="124"/>
@@ -4354,10 +4149,10 @@
       <c r="BC20" s="34"/>
       <c r="BD20" s="32"/>
       <c r="BE20" s="32"/>
-      <c r="BF20" s="178"/>
-      <c r="BG20" s="215"/>
-      <c r="BH20" s="181"/>
-      <c r="BI20" s="182"/>
+      <c r="BF20" s="32"/>
+      <c r="BG20" s="151"/>
+      <c r="BH20" s="72"/>
+      <c r="BI20" s="67"/>
       <c r="BJ20" s="67"/>
       <c r="BK20" s="32"/>
       <c r="BL20" s="33"/>
@@ -4383,9 +4178,9 @@
       <c r="CF20" s="27"/>
     </row>
     <row r="21" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="246"/>
-      <c r="C21" s="246"/>
-      <c r="D21" s="312" t="s">
+      <c r="B21" s="236"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="215" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="28"/>
@@ -4394,42 +4189,42 @@
       <c r="H21" s="25"/>
       <c r="I21" s="27"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="237"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="172"/>
-      <c r="O21" s="234"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="174"/>
-      <c r="R21" s="171"/>
-      <c r="S21" s="171"/>
-      <c r="T21" s="231"/>
-      <c r="U21" s="171"/>
-      <c r="V21" s="171"/>
-      <c r="W21" s="171"/>
-      <c r="X21" s="172"/>
-      <c r="Y21" s="226"/>
-      <c r="Z21" s="178"/>
-      <c r="AA21" s="178"/>
-      <c r="AB21" s="178"/>
-      <c r="AC21" s="194"/>
-      <c r="AD21" s="179"/>
-      <c r="AE21" s="178"/>
-      <c r="AF21" s="178"/>
-      <c r="AG21" s="178"/>
-      <c r="AH21" s="194"/>
-      <c r="AI21" s="179"/>
-      <c r="AJ21" s="177"/>
-      <c r="AK21" s="178"/>
-      <c r="AL21" s="178"/>
-      <c r="AM21" s="194"/>
-      <c r="AN21" s="181"/>
-      <c r="AO21" s="182"/>
-      <c r="AP21" s="182"/>
-      <c r="AQ21" s="178"/>
-      <c r="AR21" s="195"/>
-      <c r="AS21" s="179"/>
-      <c r="AT21" s="178"/>
+      <c r="K21" s="256"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="250"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="253"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="247"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="72"/>
+      <c r="AO21" s="67"/>
+      <c r="AP21" s="67"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="137"/>
+      <c r="AS21" s="34"/>
+      <c r="AT21" s="32"/>
       <c r="AU21" s="80"/>
       <c r="AV21" s="123"/>
       <c r="AW21" s="124"/>
@@ -4441,10 +4236,10 @@
       <c r="BC21" s="34"/>
       <c r="BD21" s="32"/>
       <c r="BE21" s="32"/>
-      <c r="BF21" s="178"/>
-      <c r="BG21" s="215"/>
-      <c r="BH21" s="181"/>
-      <c r="BI21" s="182"/>
+      <c r="BF21" s="32"/>
+      <c r="BG21" s="151"/>
+      <c r="BH21" s="72"/>
+      <c r="BI21" s="67"/>
       <c r="BJ21" s="67"/>
       <c r="BK21" s="32"/>
       <c r="BL21" s="33"/>
@@ -4470,51 +4265,51 @@
       <c r="CF21" s="27"/>
     </row>
     <row r="22" spans="1:84" s="9" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="307"/>
-      <c r="C22" s="307"/>
-      <c r="D22" s="308"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="27"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="172"/>
-      <c r="O22" s="234"/>
-      <c r="P22" s="173"/>
-      <c r="Q22" s="174"/>
-      <c r="R22" s="171"/>
-      <c r="S22" s="171"/>
-      <c r="T22" s="231"/>
-      <c r="U22" s="171"/>
-      <c r="V22" s="171"/>
-      <c r="W22" s="171"/>
-      <c r="X22" s="172"/>
-      <c r="Y22" s="226"/>
-      <c r="Z22" s="178"/>
-      <c r="AA22" s="178"/>
-      <c r="AB22" s="178"/>
-      <c r="AC22" s="194"/>
-      <c r="AD22" s="179"/>
-      <c r="AE22" s="178"/>
-      <c r="AF22" s="178"/>
-      <c r="AG22" s="178"/>
-      <c r="AH22" s="194"/>
-      <c r="AI22" s="179"/>
-      <c r="AJ22" s="177"/>
-      <c r="AK22" s="178"/>
-      <c r="AL22" s="178"/>
-      <c r="AM22" s="194"/>
-      <c r="AN22" s="181"/>
-      <c r="AO22" s="182"/>
-      <c r="AP22" s="182"/>
-      <c r="AQ22" s="178"/>
-      <c r="AR22" s="195"/>
-      <c r="AS22" s="179"/>
-      <c r="AT22" s="178"/>
+      <c r="K22" s="256"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="250"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="253"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="247"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="33"/>
+      <c r="AN22" s="72"/>
+      <c r="AO22" s="67"/>
+      <c r="AP22" s="67"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="137"/>
+      <c r="AS22" s="34"/>
+      <c r="AT22" s="32"/>
       <c r="AU22" s="80"/>
       <c r="AV22" s="123"/>
       <c r="AW22" s="124"/>
@@ -4526,10 +4321,10 @@
       <c r="BC22" s="34"/>
       <c r="BD22" s="32"/>
       <c r="BE22" s="32"/>
-      <c r="BF22" s="178"/>
-      <c r="BG22" s="215"/>
-      <c r="BH22" s="181"/>
-      <c r="BI22" s="182"/>
+      <c r="BF22" s="32"/>
+      <c r="BG22" s="151"/>
+      <c r="BH22" s="72"/>
+      <c r="BI22" s="67"/>
       <c r="BJ22" s="67"/>
       <c r="BK22" s="32"/>
       <c r="BL22" s="33"/>
@@ -4555,51 +4350,51 @@
       <c r="CF22" s="27"/>
     </row>
     <row r="23" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="307"/>
-      <c r="C23" s="309"/>
-      <c r="D23" s="309"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="237"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="172"/>
-      <c r="O23" s="234"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="174"/>
-      <c r="R23" s="171"/>
-      <c r="S23" s="171"/>
-      <c r="T23" s="231"/>
-      <c r="U23" s="171"/>
-      <c r="V23" s="171"/>
-      <c r="W23" s="171"/>
-      <c r="X23" s="172"/>
-      <c r="Y23" s="226"/>
-      <c r="Z23" s="178"/>
-      <c r="AA23" s="178"/>
-      <c r="AB23" s="178"/>
-      <c r="AC23" s="172"/>
-      <c r="AD23" s="179"/>
-      <c r="AE23" s="178"/>
-      <c r="AF23" s="178"/>
-      <c r="AG23" s="178"/>
-      <c r="AH23" s="172"/>
-      <c r="AI23" s="196"/>
-      <c r="AJ23" s="202"/>
-      <c r="AK23" s="151"/>
-      <c r="AL23" s="151"/>
-      <c r="AM23" s="197"/>
-      <c r="AN23" s="181"/>
-      <c r="AO23" s="182"/>
-      <c r="AP23" s="182"/>
-      <c r="AQ23" s="178"/>
-      <c r="AR23" s="172"/>
-      <c r="AS23" s="179"/>
-      <c r="AT23" s="178"/>
+      <c r="K23" s="256"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="250"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="253"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="247"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="138"/>
+      <c r="AJ23" s="141"/>
+      <c r="AK23" s="130"/>
+      <c r="AL23" s="130"/>
+      <c r="AM23" s="139"/>
+      <c r="AN23" s="72"/>
+      <c r="AO23" s="67"/>
+      <c r="AP23" s="67"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="34"/>
+      <c r="AT23" s="32"/>
       <c r="AU23" s="80"/>
       <c r="AV23" s="32"/>
       <c r="AW23" s="27"/>
@@ -4611,10 +4406,10 @@
       <c r="BC23" s="34"/>
       <c r="BD23" s="32"/>
       <c r="BE23" s="32"/>
-      <c r="BF23" s="178"/>
-      <c r="BG23" s="214"/>
-      <c r="BH23" s="181"/>
-      <c r="BI23" s="182"/>
+      <c r="BF23" s="32"/>
+      <c r="BG23" s="150"/>
+      <c r="BH23" s="72"/>
+      <c r="BI23" s="67"/>
       <c r="BJ23" s="67"/>
       <c r="BK23" s="32"/>
       <c r="BL23" s="27"/>
@@ -4640,30 +4435,30 @@
       <c r="CF23" s="27"/>
     </row>
     <row r="24" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="307"/>
-      <c r="C24" s="309"/>
-      <c r="D24" s="309"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="214"/>
       <c r="E24" s="36"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
       <c r="I24" s="38"/>
       <c r="J24" s="107"/>
-      <c r="K24" s="237"/>
+      <c r="K24" s="256"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="234"/>
+      <c r="O24" s="250"/>
       <c r="P24" s="107"/>
       <c r="Q24" s="108"/>
       <c r="R24" s="37"/>
       <c r="S24" s="37"/>
-      <c r="T24" s="231"/>
+      <c r="T24" s="253"/>
       <c r="U24" s="109"/>
       <c r="V24" s="37"/>
       <c r="W24" s="110"/>
       <c r="X24" s="38"/>
-      <c r="Y24" s="226"/>
+      <c r="Y24" s="247"/>
       <c r="Z24" s="39"/>
       <c r="AA24" s="39"/>
       <c r="AB24" s="39"/>
@@ -4674,7 +4469,7 @@
       <c r="AG24" s="41"/>
       <c r="AH24" s="111"/>
       <c r="AI24" s="40"/>
-      <c r="AJ24" s="203"/>
+      <c r="AJ24" s="142"/>
       <c r="AK24" s="39"/>
       <c r="AL24" s="41"/>
       <c r="AM24" s="111"/>
@@ -4696,10 +4491,10 @@
       <c r="BC24" s="40"/>
       <c r="BD24" s="39"/>
       <c r="BE24" s="39"/>
-      <c r="BF24" s="216"/>
-      <c r="BG24" s="217"/>
-      <c r="BH24" s="218"/>
-      <c r="BI24" s="219"/>
+      <c r="BF24" s="41"/>
+      <c r="BG24" s="152"/>
+      <c r="BH24" s="73"/>
+      <c r="BI24" s="74"/>
       <c r="BJ24" s="115"/>
       <c r="BK24" s="116"/>
       <c r="BL24" s="117"/>
@@ -4725,30 +4520,30 @@
       <c r="CF24" s="38"/>
     </row>
     <row r="25" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="310"/>
-      <c r="C25" s="309"/>
-      <c r="D25" s="309"/>
+      <c r="B25" s="225"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="214"/>
       <c r="E25" s="24"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="10"/>
       <c r="J25" s="24"/>
-      <c r="K25" s="237"/>
+      <c r="K25" s="256"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="234"/>
+      <c r="O25" s="250"/>
       <c r="P25" s="97"/>
       <c r="Q25" s="98"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="231"/>
+      <c r="T25" s="253"/>
       <c r="U25" s="99"/>
       <c r="V25" s="16"/>
       <c r="W25" s="100"/>
       <c r="X25" s="10"/>
-      <c r="Y25" s="226"/>
+      <c r="Y25" s="247"/>
       <c r="Z25" s="18"/>
       <c r="AA25" s="18"/>
       <c r="AB25" s="18"/>
@@ -4781,10 +4576,10 @@
       <c r="BC25" s="102"/>
       <c r="BD25" s="103"/>
       <c r="BE25" s="103"/>
-      <c r="BF25" s="152"/>
-      <c r="BG25" s="211"/>
-      <c r="BH25" s="193"/>
-      <c r="BI25" s="156"/>
+      <c r="BF25" s="21"/>
+      <c r="BG25" s="147"/>
+      <c r="BH25" s="101"/>
+      <c r="BI25" s="75"/>
       <c r="BJ25" s="75"/>
       <c r="BK25" s="21"/>
       <c r="BL25" s="19"/>
@@ -4810,30 +4605,30 @@
       <c r="CF25" s="10"/>
     </row>
     <row r="26" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="310"/>
-      <c r="C26" s="309"/>
-      <c r="D26" s="309"/>
+      <c r="B26" s="225"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
       <c r="E26" s="24"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="10"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="237"/>
+      <c r="K26" s="256"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="234"/>
+      <c r="O26" s="250"/>
       <c r="P26" s="97"/>
       <c r="Q26" s="98"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
-      <c r="T26" s="231"/>
+      <c r="T26" s="253"/>
       <c r="U26" s="99"/>
       <c r="V26" s="16"/>
       <c r="W26" s="100"/>
       <c r="X26" s="10"/>
-      <c r="Y26" s="226"/>
+      <c r="Y26" s="247"/>
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
       <c r="AB26" s="18"/>
@@ -4866,10 +4661,10 @@
       <c r="BC26" s="20"/>
       <c r="BD26" s="18"/>
       <c r="BE26" s="18"/>
-      <c r="BF26" s="152"/>
-      <c r="BG26" s="211"/>
-      <c r="BH26" s="193"/>
-      <c r="BI26" s="156"/>
+      <c r="BF26" s="21"/>
+      <c r="BG26" s="147"/>
+      <c r="BH26" s="101"/>
+      <c r="BI26" s="75"/>
       <c r="BJ26" s="104"/>
       <c r="BK26" s="105"/>
       <c r="BL26" s="106"/>
@@ -4895,30 +4690,30 @@
       <c r="CF26" s="10"/>
     </row>
     <row r="27" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="311"/>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
+      <c r="B27" s="224"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
       <c r="E27" s="2"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="3"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="237"/>
+      <c r="K27" s="256"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="234"/>
+      <c r="O27" s="250"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="68"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="231"/>
+      <c r="T27" s="253"/>
       <c r="U27" s="14"/>
       <c r="V27" s="4"/>
       <c r="W27" s="15"/>
       <c r="X27" s="3"/>
-      <c r="Y27" s="226"/>
+      <c r="Y27" s="247"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
@@ -4951,10 +4746,10 @@
       <c r="BC27" s="8"/>
       <c r="BD27" s="5"/>
       <c r="BE27" s="5"/>
-      <c r="BF27" s="142"/>
-      <c r="BG27" s="210"/>
-      <c r="BH27" s="145"/>
-      <c r="BI27" s="146"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="146"/>
+      <c r="BH27" s="71"/>
+      <c r="BI27" s="66"/>
       <c r="BJ27" s="66"/>
       <c r="BK27" s="7"/>
       <c r="BL27" s="6"/>
@@ -4980,30 +4775,30 @@
       <c r="CF27" s="3"/>
     </row>
     <row r="28" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="310"/>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
+      <c r="B28" s="225"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="214"/>
       <c r="E28" s="26"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="27"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="238"/>
+      <c r="K28" s="257"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
       <c r="N28" s="27"/>
-      <c r="O28" s="235"/>
+      <c r="O28" s="251"/>
       <c r="P28" s="28"/>
       <c r="Q28" s="69"/>
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
-      <c r="T28" s="232"/>
+      <c r="T28" s="254"/>
       <c r="U28" s="29"/>
       <c r="V28" s="25"/>
       <c r="W28" s="30"/>
       <c r="X28" s="27"/>
-      <c r="Y28" s="227"/>
+      <c r="Y28" s="248"/>
       <c r="Z28" s="32"/>
       <c r="AA28" s="32"/>
       <c r="AB28" s="32"/>
@@ -5036,10 +4831,10 @@
       <c r="BC28" s="34"/>
       <c r="BD28" s="32"/>
       <c r="BE28" s="32"/>
-      <c r="BF28" s="180"/>
-      <c r="BG28" s="215"/>
-      <c r="BH28" s="181"/>
-      <c r="BI28" s="182"/>
+      <c r="BF28" s="35"/>
+      <c r="BG28" s="151"/>
+      <c r="BH28" s="72"/>
+      <c r="BI28" s="67"/>
       <c r="BJ28" s="67"/>
       <c r="BK28" s="35"/>
       <c r="BL28" s="33"/>
@@ -5065,7 +4860,7 @@
       <c r="CF28" s="27"/>
     </row>
     <row r="29" spans="1:84" s="9" customFormat="1" ht="32.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="132"/>
+      <c r="B29" s="226"/>
       <c r="C29" s="51"/>
       <c r="D29" s="51"/>
       <c r="E29" s="2"/>
@@ -5090,7 +4885,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="15"/>
       <c r="X29" s="3"/>
-      <c r="Y29" s="222"/>
+      <c r="Y29" s="155"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
@@ -5123,10 +4918,10 @@
       <c r="BC29" s="8"/>
       <c r="BD29" s="5"/>
       <c r="BE29" s="5"/>
-      <c r="BF29" s="142"/>
-      <c r="BG29" s="210"/>
-      <c r="BH29" s="145"/>
-      <c r="BI29" s="146"/>
+      <c r="BF29" s="7"/>
+      <c r="BG29" s="146"/>
+      <c r="BH29" s="71"/>
+      <c r="BI29" s="66"/>
       <c r="BJ29" s="66"/>
       <c r="BK29" s="7"/>
       <c r="BL29" s="6"/>
@@ -5154,7 +4949,7 @@
       <c r="CF29" s="3"/>
     </row>
     <row r="30" spans="1:84" s="9" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="135"/>
+      <c r="B30" s="227"/>
       <c r="C30" s="50"/>
       <c r="D30" s="52"/>
       <c r="E30" s="53"/>
@@ -5177,7 +4972,7 @@
       <c r="V30" s="54"/>
       <c r="W30" s="59"/>
       <c r="X30" s="55"/>
-      <c r="Y30" s="223"/>
+      <c r="Y30" s="156"/>
       <c r="Z30" s="61"/>
       <c r="AA30" s="61"/>
       <c r="AB30" s="61"/>
@@ -5210,10 +5005,10 @@
       <c r="BC30" s="63"/>
       <c r="BD30" s="61"/>
       <c r="BE30" s="61"/>
-      <c r="BF30" s="162"/>
-      <c r="BG30" s="212"/>
-      <c r="BH30" s="186"/>
-      <c r="BI30" s="160"/>
+      <c r="BF30" s="62"/>
+      <c r="BG30" s="148"/>
+      <c r="BH30" s="76"/>
+      <c r="BI30" s="77"/>
       <c r="BJ30" s="77"/>
       <c r="BK30" s="62"/>
       <c r="BL30" s="64"/>
@@ -5243,6 +5038,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Y10:Y28"/>
+    <mergeCell ref="O10:O28"/>
+    <mergeCell ref="T10:T28"/>
+    <mergeCell ref="K10:K28"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="B2:BG2"/>
+    <mergeCell ref="CB7:CF7"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="P7:AK7"/>
+    <mergeCell ref="AL7:BF7"/>
+    <mergeCell ref="BG7:CA7"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B25:B26"/>
@@ -5250,17 +5056,6 @@
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B2:BG2"/>
-    <mergeCell ref="CB7:CF7"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="P7:AK7"/>
-    <mergeCell ref="AL7:BF7"/>
-    <mergeCell ref="BG7:CA7"/>
-    <mergeCell ref="Y10:Y28"/>
-    <mergeCell ref="O10:O28"/>
-    <mergeCell ref="T10:T28"/>
-    <mergeCell ref="K10:K28"/>
-    <mergeCell ref="B10:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.11811023622047245" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Project_SuperHotClone_Scheduling.xlsx
+++ b/Project_SuperHotClone_Scheduling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25806"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25813"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UE5\SuperHotClone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B79C1-81F8-45D6-BBFF-6A7018066097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC6976-BD68-4DF5-BE61-3A6DD15FCE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1314,7 +1314,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1792,9 +1792,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1987,6 +1984,69 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2017,77 +2077,14 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2439,10 +2436,10 @@
   <dimension ref="A1:CF31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2467,73 +2464,73 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:84" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="235" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238"/>
-      <c r="S2" s="238"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="238"/>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="238"/>
-      <c r="AA2" s="238"/>
-      <c r="AB2" s="238"/>
-      <c r="AC2" s="238"/>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="238"/>
-      <c r="AF2" s="238"/>
-      <c r="AG2" s="238"/>
-      <c r="AH2" s="238"/>
-      <c r="AI2" s="238"/>
-      <c r="AJ2" s="238"/>
-      <c r="AK2" s="238"/>
-      <c r="AL2" s="238"/>
-      <c r="AM2" s="238"/>
-      <c r="AN2" s="238"/>
-      <c r="AO2" s="238"/>
-      <c r="AP2" s="238"/>
-      <c r="AQ2" s="238"/>
-      <c r="AR2" s="238"/>
-      <c r="AS2" s="238"/>
-      <c r="AT2" s="238"/>
-      <c r="AU2" s="238"/>
-      <c r="AV2" s="238"/>
-      <c r="AW2" s="238"/>
-      <c r="AX2" s="238"/>
-      <c r="AY2" s="238"/>
-      <c r="AZ2" s="238"/>
-      <c r="BA2" s="238"/>
-      <c r="BB2" s="238"/>
-      <c r="BC2" s="238"/>
-      <c r="BD2" s="238"/>
-      <c r="BE2" s="238"/>
-      <c r="BF2" s="238"/>
-      <c r="BG2" s="240"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="236"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="236"/>
+      <c r="AB2" s="236"/>
+      <c r="AC2" s="236"/>
+      <c r="AD2" s="236"/>
+      <c r="AE2" s="236"/>
+      <c r="AF2" s="236"/>
+      <c r="AG2" s="236"/>
+      <c r="AH2" s="236"/>
+      <c r="AI2" s="236"/>
+      <c r="AJ2" s="236"/>
+      <c r="AK2" s="236"/>
+      <c r="AL2" s="236"/>
+      <c r="AM2" s="236"/>
+      <c r="AN2" s="236"/>
+      <c r="AO2" s="236"/>
+      <c r="AP2" s="236"/>
+      <c r="AQ2" s="236"/>
+      <c r="AR2" s="236"/>
+      <c r="AS2" s="236"/>
+      <c r="AT2" s="236"/>
+      <c r="AU2" s="236"/>
+      <c r="AV2" s="236"/>
+      <c r="AW2" s="236"/>
+      <c r="AX2" s="236"/>
+      <c r="AY2" s="236"/>
+      <c r="AZ2" s="236"/>
+      <c r="BA2" s="236"/>
+      <c r="BB2" s="236"/>
+      <c r="BC2" s="236"/>
+      <c r="BD2" s="236"/>
+      <c r="BE2" s="236"/>
+      <c r="BF2" s="236"/>
+      <c r="BG2" s="238"/>
     </row>
     <row r="3" spans="1:84" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="87" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="86"/>
-      <c r="D3" s="217"/>
+      <c r="D3" s="216"/>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
       <c r="G3" s="86"/>
@@ -2594,7 +2591,7 @@
       <c r="B4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="217" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2602,121 +2599,121 @@
       <c r="B5" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="219"/>
+      <c r="D5" s="218"/>
     </row>
     <row r="6" spans="1:84" s="85" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="218" t="s">
+      <c r="D6" s="217" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:84" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="228" t="s">
+      <c r="B7" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="229"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="242" t="s">
+      <c r="C7" s="249"/>
+      <c r="D7" s="250"/>
+      <c r="E7" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="242"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
-      <c r="M7" s="242"/>
-      <c r="N7" s="242"/>
-      <c r="O7" s="242"/>
-      <c r="P7" s="241" t="s">
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="240"/>
+      <c r="N7" s="240"/>
+      <c r="O7" s="240"/>
+      <c r="P7" s="239" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="242"/>
-      <c r="R7" s="242"/>
-      <c r="S7" s="242"/>
-      <c r="T7" s="242"/>
-      <c r="U7" s="242"/>
-      <c r="V7" s="242"/>
-      <c r="W7" s="242"/>
-      <c r="X7" s="242"/>
-      <c r="Y7" s="242"/>
-      <c r="Z7" s="242"/>
-      <c r="AA7" s="242"/>
-      <c r="AB7" s="242"/>
-      <c r="AC7" s="242"/>
-      <c r="AD7" s="242"/>
-      <c r="AE7" s="242"/>
-      <c r="AF7" s="242"/>
-      <c r="AG7" s="242"/>
-      <c r="AH7" s="242"/>
-      <c r="AI7" s="242"/>
-      <c r="AJ7" s="242"/>
-      <c r="AK7" s="244"/>
-      <c r="AL7" s="242" t="s">
+      <c r="Q7" s="240"/>
+      <c r="R7" s="240"/>
+      <c r="S7" s="240"/>
+      <c r="T7" s="240"/>
+      <c r="U7" s="240"/>
+      <c r="V7" s="240"/>
+      <c r="W7" s="240"/>
+      <c r="X7" s="240"/>
+      <c r="Y7" s="240"/>
+      <c r="Z7" s="240"/>
+      <c r="AA7" s="240"/>
+      <c r="AB7" s="240"/>
+      <c r="AC7" s="240"/>
+      <c r="AD7" s="240"/>
+      <c r="AE7" s="240"/>
+      <c r="AF7" s="240"/>
+      <c r="AG7" s="240"/>
+      <c r="AH7" s="240"/>
+      <c r="AI7" s="240"/>
+      <c r="AJ7" s="240"/>
+      <c r="AK7" s="242"/>
+      <c r="AL7" s="240" t="s">
         <v>20</v>
       </c>
-      <c r="AM7" s="242"/>
-      <c r="AN7" s="242"/>
-      <c r="AO7" s="242"/>
-      <c r="AP7" s="242"/>
-      <c r="AQ7" s="242"/>
-      <c r="AR7" s="242"/>
-      <c r="AS7" s="242"/>
-      <c r="AT7" s="242"/>
-      <c r="AU7" s="242"/>
-      <c r="AV7" s="242"/>
-      <c r="AW7" s="242"/>
-      <c r="AX7" s="242"/>
-      <c r="AY7" s="242"/>
-      <c r="AZ7" s="242"/>
-      <c r="BA7" s="242"/>
-      <c r="BB7" s="242"/>
-      <c r="BC7" s="242"/>
-      <c r="BD7" s="242"/>
-      <c r="BE7" s="242"/>
-      <c r="BF7" s="244"/>
-      <c r="BG7" s="245" t="s">
+      <c r="AM7" s="240"/>
+      <c r="AN7" s="240"/>
+      <c r="AO7" s="240"/>
+      <c r="AP7" s="240"/>
+      <c r="AQ7" s="240"/>
+      <c r="AR7" s="240"/>
+      <c r="AS7" s="240"/>
+      <c r="AT7" s="240"/>
+      <c r="AU7" s="240"/>
+      <c r="AV7" s="240"/>
+      <c r="AW7" s="240"/>
+      <c r="AX7" s="240"/>
+      <c r="AY7" s="240"/>
+      <c r="AZ7" s="240"/>
+      <c r="BA7" s="240"/>
+      <c r="BB7" s="240"/>
+      <c r="BC7" s="240"/>
+      <c r="BD7" s="240"/>
+      <c r="BE7" s="240"/>
+      <c r="BF7" s="242"/>
+      <c r="BG7" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="BH7" s="242"/>
-      <c r="BI7" s="242"/>
-      <c r="BJ7" s="242"/>
-      <c r="BK7" s="242"/>
-      <c r="BL7" s="242"/>
-      <c r="BM7" s="242"/>
-      <c r="BN7" s="242"/>
-      <c r="BO7" s="242"/>
-      <c r="BP7" s="242"/>
-      <c r="BQ7" s="242"/>
-      <c r="BR7" s="242"/>
-      <c r="BS7" s="242"/>
-      <c r="BT7" s="242"/>
-      <c r="BU7" s="242"/>
-      <c r="BV7" s="242"/>
-      <c r="BW7" s="242"/>
-      <c r="BX7" s="242"/>
-      <c r="BY7" s="242"/>
-      <c r="BZ7" s="242"/>
-      <c r="CA7" s="243"/>
-      <c r="CB7" s="241" t="s">
+      <c r="BH7" s="240"/>
+      <c r="BI7" s="240"/>
+      <c r="BJ7" s="240"/>
+      <c r="BK7" s="240"/>
+      <c r="BL7" s="240"/>
+      <c r="BM7" s="240"/>
+      <c r="BN7" s="240"/>
+      <c r="BO7" s="240"/>
+      <c r="BP7" s="240"/>
+      <c r="BQ7" s="240"/>
+      <c r="BR7" s="240"/>
+      <c r="BS7" s="240"/>
+      <c r="BT7" s="240"/>
+      <c r="BU7" s="240"/>
+      <c r="BV7" s="240"/>
+      <c r="BW7" s="240"/>
+      <c r="BX7" s="240"/>
+      <c r="BY7" s="240"/>
+      <c r="BZ7" s="240"/>
+      <c r="CA7" s="241"/>
+      <c r="CB7" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="CC7" s="242"/>
-      <c r="CD7" s="242"/>
-      <c r="CE7" s="242"/>
-      <c r="CF7" s="243"/>
+      <c r="CC7" s="240"/>
+      <c r="CD7" s="240"/>
+      <c r="CE7" s="240"/>
+      <c r="CF7" s="241"/>
     </row>
     <row r="8" spans="1:84" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="231"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="253"/>
       <c r="E8" s="43">
         <v>17</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="157">
         <v>18</v>
       </c>
       <c r="G8" s="43">
@@ -2731,7 +2728,7 @@
       <c r="J8" s="43">
         <v>24</v>
       </c>
-      <c r="K8" s="159">
+      <c r="K8" s="43">
         <v>25</v>
       </c>
       <c r="L8" s="43">
@@ -2945,294 +2942,294 @@
       <c r="CF8" s="44"/>
     </row>
     <row r="9" spans="1:84" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="183" t="s">
+      <c r="B9" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="184" t="s">
+      <c r="C9" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="184" t="s">
+      <c r="D9" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="185" t="s">
+      <c r="E9" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="185" t="s">
+      <c r="F9" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="185" t="s">
+      <c r="G9" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="185" t="s">
+      <c r="H9" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="186" t="s">
+      <c r="I9" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="185" t="s">
+      <c r="J9" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="187" t="s">
+      <c r="K9" s="184" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="184" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="187" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="189" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="190" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="191" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="192" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="185" t="s">
+      <c r="V9" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="185" t="s">
+      <c r="W9" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="188" t="s">
+      <c r="X9" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="189" t="s">
+      <c r="Y9" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="190" t="s">
+      <c r="Z9" s="184" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="184" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="185" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="184" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="184" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="184" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG9" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH9" s="185" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI9" s="184" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="191" t="s">
+      <c r="AK9" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="192" t="s">
+      <c r="AL9" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="193" t="s">
+      <c r="AM9" s="185" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN9" s="189" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="189" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP9" s="189" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ9" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR9" s="185" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS9" s="184" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="184" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU9" s="194" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV9" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW9" s="185" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX9" s="184" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY9" s="184" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ9" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA9" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB9" s="185" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC9" s="184" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD9" s="184" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE9" s="184" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF9" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG9" s="197" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH9" s="198" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI9" s="198" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ9" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK9" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL9" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="187" t="s">
+      <c r="BM9" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="U9" s="185" t="s">
-        <v>7</v>
-      </c>
-      <c r="V9" s="185" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="185" t="s">
+      <c r="BN9" s="184" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO9" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP9" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="X9" s="186" t="s">
+      <c r="BQ9" s="185" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR9" s="184" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS9" s="184" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT9" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU9" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV9" s="185" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW9" s="199" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX9" s="184" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY9" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ9" s="200" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA9" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="Y9" s="194" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="185" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA9" s="185" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB9" s="185" t="s">
+      <c r="CB9" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC9" s="195" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD9" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="CE9" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="AC9" s="186" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD9" s="185" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="185" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF9" s="185" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG9" s="185" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH9" s="186" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI9" s="185" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ9" s="185" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK9" s="185" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL9" s="185" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM9" s="186" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN9" s="190" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO9" s="190" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP9" s="190" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ9" s="185" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR9" s="186" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS9" s="185" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT9" s="185" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU9" s="195" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV9" s="185" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW9" s="186" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX9" s="185" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY9" s="185" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ9" s="196" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA9" s="185" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB9" s="186" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC9" s="185" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD9" s="185" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE9" s="185" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF9" s="197" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG9" s="198" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH9" s="199" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI9" s="199" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ9" s="190" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK9" s="185" t="s">
-        <v>5</v>
-      </c>
-      <c r="BL9" s="186" t="s">
+      <c r="CF9" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="BM9" s="185" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN9" s="185" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO9" s="185" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP9" s="185" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ9" s="186" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR9" s="185" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS9" s="185" t="s">
-        <v>3</v>
-      </c>
-      <c r="BT9" s="185" t="s">
-        <v>4</v>
-      </c>
-      <c r="BU9" s="185" t="s">
-        <v>5</v>
-      </c>
-      <c r="BV9" s="186" t="s">
-        <v>6</v>
-      </c>
-      <c r="BW9" s="200" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX9" s="185" t="s">
-        <v>3</v>
-      </c>
-      <c r="BY9" s="185" t="s">
-        <v>4</v>
-      </c>
-      <c r="BZ9" s="201" t="s">
-        <v>5</v>
-      </c>
-      <c r="CA9" s="202" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB9" s="185" t="s">
-        <v>11</v>
-      </c>
-      <c r="CC9" s="196" t="s">
-        <v>3</v>
-      </c>
-      <c r="CD9" s="185" t="s">
-        <v>4</v>
-      </c>
-      <c r="CE9" s="185" t="s">
-        <v>5</v>
-      </c>
-      <c r="CF9" s="186" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="10" spans="1:84" s="206" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="205"/>
-      <c r="B10" s="234" t="s">
+    <row r="10" spans="1:84" s="205" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="204"/>
+      <c r="B10" s="232" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="234" t="s">
+      <c r="C10" s="232" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="49" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="226" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="256"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="3"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="255" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="216"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="249" t="s">
+      <c r="O10" s="226" t="s">
         <v>29</v>
       </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="126"/>
       <c r="R10" s="127"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="252" t="s">
+      <c r="T10" s="229" t="s">
         <v>30</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="5"/>
       <c r="W10" s="128"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="246" t="s">
+      <c r="Y10" s="223" t="s">
         <v>31</v>
       </c>
       <c r="Z10" s="5"/>
@@ -3296,33 +3293,33 @@
       <c r="CF10" s="3"/>
     </row>
     <row r="11" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="207"/>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
+      <c r="A11" s="206"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="233"/>
       <c r="D11" s="50" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="24"/>
-      <c r="F11" s="16"/>
+      <c r="F11" s="227"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="254"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="256"/>
-      <c r="L11" s="216"/>
-      <c r="M11" s="216"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="250"/>
+      <c r="O11" s="227"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="129"/>
       <c r="R11" s="130"/>
       <c r="S11" s="22"/>
-      <c r="T11" s="253"/>
+      <c r="T11" s="230"/>
       <c r="U11" s="21"/>
       <c r="V11" s="18"/>
       <c r="W11" s="131"/>
       <c r="X11" s="10"/>
-      <c r="Y11" s="247"/>
+      <c r="Y11" s="224"/>
       <c r="Z11" s="18"/>
       <c r="AA11" s="18"/>
       <c r="AB11" s="18"/>
@@ -3384,33 +3381,33 @@
       <c r="CF11" s="10"/>
     </row>
     <row r="12" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="207"/>
-      <c r="B12" s="235"/>
-      <c r="C12" s="236"/>
+      <c r="A12" s="206"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="234"/>
       <c r="D12" s="51" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="F12" s="227"/>
       <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="255"/>
       <c r="J12" s="60"/>
-      <c r="K12" s="256"/>
-      <c r="L12" s="216"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="61"/>
       <c r="M12" s="61"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="250"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="227"/>
       <c r="P12" s="63"/>
       <c r="Q12" s="77"/>
       <c r="R12" s="62"/>
       <c r="S12" s="64"/>
-      <c r="T12" s="253"/>
+      <c r="T12" s="230"/>
       <c r="U12" s="62"/>
       <c r="V12" s="61"/>
       <c r="W12" s="134"/>
       <c r="X12" s="55"/>
-      <c r="Y12" s="247"/>
+      <c r="Y12" s="224"/>
       <c r="Z12" s="61"/>
       <c r="AA12" s="61"/>
       <c r="AB12" s="61"/>
@@ -3472,35 +3469,35 @@
       <c r="CF12" s="55"/>
     </row>
     <row r="13" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="207"/>
-      <c r="B13" s="235"/>
-      <c r="C13" s="234" t="s">
+      <c r="A13" s="206"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="180" t="s">
+      <c r="D13" s="179" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="222"/>
-      <c r="H13" s="220"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="221"/>
+      <c r="H13" s="219"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="256"/>
+      <c r="K13" s="222"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="250"/>
+      <c r="O13" s="227"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="68"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="253"/>
+      <c r="T13" s="230"/>
       <c r="U13" s="14"/>
       <c r="V13" s="4"/>
       <c r="W13" s="15"/>
       <c r="X13" s="27"/>
-      <c r="Y13" s="247"/>
+      <c r="Y13" s="224"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
@@ -3562,33 +3559,33 @@
       <c r="CF13" s="3"/>
     </row>
     <row r="14" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="207"/>
-      <c r="B14" s="235"/>
-      <c r="C14" s="235"/>
-      <c r="D14" s="178" t="s">
+      <c r="A14" s="206"/>
+      <c r="B14" s="233"/>
+      <c r="C14" s="233"/>
+      <c r="D14" s="177" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="221"/>
+      <c r="F14" s="227"/>
+      <c r="G14" s="220"/>
       <c r="H14" s="25"/>
       <c r="I14" s="27"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="256"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="27"/>
-      <c r="O14" s="250"/>
+      <c r="O14" s="227"/>
       <c r="P14" s="28"/>
       <c r="Q14" s="69"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
-      <c r="T14" s="253"/>
+      <c r="T14" s="230"/>
       <c r="U14" s="29"/>
       <c r="V14" s="25"/>
       <c r="W14" s="30"/>
       <c r="X14" s="27"/>
-      <c r="Y14" s="247"/>
+      <c r="Y14" s="224"/>
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
       <c r="AB14" s="32"/>
@@ -3650,121 +3647,121 @@
       <c r="CF14" s="27"/>
     </row>
     <row r="15" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="207"/>
-      <c r="B15" s="235"/>
-      <c r="C15" s="235"/>
-      <c r="D15" s="179" t="s">
+      <c r="A15" s="206"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="233"/>
+      <c r="D15" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="160"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="256"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="250"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="161"/>
-      <c r="T15" s="253"/>
-      <c r="U15" s="165"/>
-      <c r="V15" s="161"/>
-      <c r="W15" s="166"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="247"/>
-      <c r="Z15" s="167"/>
-      <c r="AA15" s="167"/>
-      <c r="AB15" s="167"/>
-      <c r="AC15" s="168"/>
-      <c r="AD15" s="169"/>
-      <c r="AE15" s="167"/>
-      <c r="AF15" s="167"/>
-      <c r="AG15" s="170"/>
-      <c r="AH15" s="168"/>
-      <c r="AI15" s="169"/>
-      <c r="AJ15" s="171"/>
-      <c r="AK15" s="167"/>
-      <c r="AL15" s="170"/>
-      <c r="AM15" s="162"/>
-      <c r="AN15" s="172"/>
-      <c r="AO15" s="173"/>
-      <c r="AP15" s="173"/>
-      <c r="AQ15" s="170"/>
-      <c r="AR15" s="162"/>
-      <c r="AS15" s="169"/>
-      <c r="AT15" s="167"/>
-      <c r="AU15" s="174"/>
-      <c r="AV15" s="170"/>
-      <c r="AW15" s="162"/>
-      <c r="AX15" s="169"/>
-      <c r="AY15" s="167"/>
-      <c r="AZ15" s="167"/>
-      <c r="BA15" s="170"/>
-      <c r="BB15" s="162"/>
-      <c r="BC15" s="169"/>
-      <c r="BD15" s="167"/>
-      <c r="BE15" s="167"/>
-      <c r="BF15" s="170"/>
-      <c r="BG15" s="175"/>
-      <c r="BH15" s="172"/>
-      <c r="BI15" s="173"/>
-      <c r="BJ15" s="173"/>
-      <c r="BK15" s="170"/>
-      <c r="BL15" s="162"/>
-      <c r="BM15" s="169"/>
-      <c r="BN15" s="167"/>
-      <c r="BO15" s="167"/>
-      <c r="BP15" s="170"/>
-      <c r="BQ15" s="162"/>
-      <c r="BR15" s="169"/>
-      <c r="BS15" s="167"/>
-      <c r="BT15" s="167"/>
-      <c r="BU15" s="170"/>
-      <c r="BV15" s="162"/>
-      <c r="BW15" s="169"/>
-      <c r="BX15" s="167"/>
-      <c r="BY15" s="167"/>
-      <c r="BZ15" s="167"/>
-      <c r="CA15" s="176"/>
-      <c r="CB15" s="160"/>
-      <c r="CC15" s="161"/>
-      <c r="CD15" s="161"/>
-      <c r="CE15" s="161"/>
-      <c r="CF15" s="162"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="227"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="160"/>
+      <c r="M15" s="160"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="227"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="160"/>
+      <c r="S15" s="160"/>
+      <c r="T15" s="230"/>
+      <c r="U15" s="164"/>
+      <c r="V15" s="160"/>
+      <c r="W15" s="165"/>
+      <c r="X15" s="161"/>
+      <c r="Y15" s="224"/>
+      <c r="Z15" s="166"/>
+      <c r="AA15" s="166"/>
+      <c r="AB15" s="166"/>
+      <c r="AC15" s="167"/>
+      <c r="AD15" s="168"/>
+      <c r="AE15" s="166"/>
+      <c r="AF15" s="166"/>
+      <c r="AG15" s="169"/>
+      <c r="AH15" s="167"/>
+      <c r="AI15" s="168"/>
+      <c r="AJ15" s="170"/>
+      <c r="AK15" s="166"/>
+      <c r="AL15" s="169"/>
+      <c r="AM15" s="161"/>
+      <c r="AN15" s="171"/>
+      <c r="AO15" s="172"/>
+      <c r="AP15" s="172"/>
+      <c r="AQ15" s="169"/>
+      <c r="AR15" s="161"/>
+      <c r="AS15" s="168"/>
+      <c r="AT15" s="166"/>
+      <c r="AU15" s="173"/>
+      <c r="AV15" s="169"/>
+      <c r="AW15" s="161"/>
+      <c r="AX15" s="168"/>
+      <c r="AY15" s="166"/>
+      <c r="AZ15" s="166"/>
+      <c r="BA15" s="169"/>
+      <c r="BB15" s="161"/>
+      <c r="BC15" s="168"/>
+      <c r="BD15" s="166"/>
+      <c r="BE15" s="166"/>
+      <c r="BF15" s="169"/>
+      <c r="BG15" s="174"/>
+      <c r="BH15" s="171"/>
+      <c r="BI15" s="172"/>
+      <c r="BJ15" s="172"/>
+      <c r="BK15" s="169"/>
+      <c r="BL15" s="161"/>
+      <c r="BM15" s="168"/>
+      <c r="BN15" s="166"/>
+      <c r="BO15" s="166"/>
+      <c r="BP15" s="169"/>
+      <c r="BQ15" s="161"/>
+      <c r="BR15" s="168"/>
+      <c r="BS15" s="166"/>
+      <c r="BT15" s="166"/>
+      <c r="BU15" s="169"/>
+      <c r="BV15" s="161"/>
+      <c r="BW15" s="168"/>
+      <c r="BX15" s="166"/>
+      <c r="BY15" s="166"/>
+      <c r="BZ15" s="166"/>
+      <c r="CA15" s="175"/>
+      <c r="CB15" s="159"/>
+      <c r="CC15" s="160"/>
+      <c r="CD15" s="160"/>
+      <c r="CE15" s="160"/>
+      <c r="CF15" s="161"/>
     </row>
-    <row r="16" spans="1:84" s="177" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="208"/>
-      <c r="B16" s="235"/>
-      <c r="C16" s="235"/>
-      <c r="D16" s="178" t="s">
+    <row r="16" spans="1:84" s="176" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="207"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="177" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="25"/>
+      <c r="F16" s="227"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="27"/>
       <c r="J16" s="28"/>
-      <c r="K16" s="256"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="27"/>
-      <c r="O16" s="250"/>
+      <c r="O16" s="227"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="69"/>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="253"/>
+      <c r="T16" s="230"/>
       <c r="U16" s="25"/>
       <c r="V16" s="130"/>
       <c r="W16" s="25"/>
       <c r="X16" s="27"/>
-      <c r="Y16" s="247"/>
+      <c r="Y16" s="224"/>
       <c r="Z16" s="32"/>
       <c r="AA16" s="32"/>
       <c r="AB16" s="32"/>
@@ -3826,33 +3823,33 @@
       <c r="CF16" s="27"/>
     </row>
     <row r="17" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="207"/>
-      <c r="B17" s="235"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="181" t="s">
+      <c r="A17" s="206"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="180" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="97"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="227"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="10"/>
       <c r="J17" s="97"/>
-      <c r="K17" s="256"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="250"/>
+      <c r="O17" s="227"/>
       <c r="P17" s="97"/>
       <c r="Q17" s="98"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
-      <c r="T17" s="253"/>
+      <c r="T17" s="230"/>
       <c r="U17" s="16"/>
       <c r="V17" s="136"/>
       <c r="W17" s="16"/>
       <c r="X17" s="10"/>
-      <c r="Y17" s="247"/>
+      <c r="Y17" s="224"/>
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
@@ -3913,34 +3910,34 @@
       <c r="CE17" s="16"/>
       <c r="CF17" s="10"/>
     </row>
-    <row r="18" spans="1:84" s="210" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="209"/>
-      <c r="B18" s="235"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="182" t="s">
+    <row r="18" spans="1:84" s="209" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="208"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="181" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="56"/>
-      <c r="F18" s="54"/>
+      <c r="F18" s="227"/>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
       <c r="I18" s="55"/>
       <c r="J18" s="56"/>
-      <c r="K18" s="256"/>
+      <c r="K18" s="54"/>
       <c r="L18" s="54"/>
       <c r="M18" s="54"/>
       <c r="N18" s="55"/>
-      <c r="O18" s="250"/>
+      <c r="O18" s="227"/>
       <c r="P18" s="56"/>
       <c r="Q18" s="70"/>
       <c r="R18" s="54"/>
       <c r="S18" s="54"/>
-      <c r="T18" s="253"/>
+      <c r="T18" s="230"/>
       <c r="U18" s="54"/>
       <c r="V18" s="54"/>
       <c r="W18" s="54"/>
       <c r="X18" s="55"/>
-      <c r="Y18" s="247"/>
+      <c r="Y18" s="224"/>
       <c r="Z18" s="61"/>
       <c r="AA18" s="61"/>
       <c r="AB18" s="61"/>
@@ -4002,34 +3999,34 @@
       <c r="CF18" s="55"/>
     </row>
     <row r="19" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="235"/>
-      <c r="C19" s="234" t="s">
+      <c r="B19" s="233"/>
+      <c r="C19" s="232" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="211" t="s">
+      <c r="D19" s="210" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="97"/>
-      <c r="F19" s="16"/>
+      <c r="F19" s="227"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="256"/>
+      <c r="J19" s="256"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="250"/>
+      <c r="O19" s="227"/>
       <c r="P19" s="97"/>
       <c r="Q19" s="98"/>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
-      <c r="T19" s="253"/>
+      <c r="T19" s="230"/>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="10"/>
-      <c r="Y19" s="247"/>
+      <c r="Y19" s="224"/>
       <c r="Z19" s="18"/>
       <c r="AA19" s="18"/>
       <c r="AB19" s="18"/>
@@ -4048,12 +4045,12 @@
       <c r="AO19" s="75"/>
       <c r="AP19" s="75"/>
       <c r="AQ19" s="18"/>
-      <c r="AR19" s="203"/>
+      <c r="AR19" s="202"/>
       <c r="AS19" s="20"/>
       <c r="AT19" s="18"/>
       <c r="AU19" s="82"/>
       <c r="AV19" s="103"/>
-      <c r="AW19" s="204"/>
+      <c r="AW19" s="203"/>
       <c r="AX19" s="102"/>
       <c r="AY19" s="103"/>
       <c r="AZ19" s="18"/>
@@ -4091,32 +4088,32 @@
       <c r="CF19" s="10"/>
     </row>
     <row r="20" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="235"/>
-      <c r="C20" s="235"/>
-      <c r="D20" s="212" t="s">
+      <c r="B20" s="233"/>
+      <c r="C20" s="233"/>
+      <c r="D20" s="211" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="227"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="256"/>
+      <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
       <c r="N20" s="27"/>
-      <c r="O20" s="250"/>
+      <c r="O20" s="227"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="69"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="253"/>
+      <c r="T20" s="230"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
       <c r="X20" s="27"/>
-      <c r="Y20" s="247"/>
+      <c r="Y20" s="224"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="32"/>
       <c r="AB20" s="32"/>
@@ -4178,32 +4175,32 @@
       <c r="CF20" s="27"/>
     </row>
     <row r="21" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="236"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="215" t="s">
+      <c r="B21" s="234"/>
+      <c r="C21" s="234"/>
+      <c r="D21" s="214" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="28"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="227"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="27"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="256"/>
+      <c r="K21" s="25"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
       <c r="N21" s="27"/>
-      <c r="O21" s="250"/>
+      <c r="O21" s="227"/>
       <c r="P21" s="28"/>
       <c r="Q21" s="69"/>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
-      <c r="T21" s="253"/>
+      <c r="T21" s="230"/>
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
       <c r="W21" s="25"/>
       <c r="X21" s="27"/>
-      <c r="Y21" s="247"/>
+      <c r="Y21" s="224"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="32"/>
       <c r="AB21" s="32"/>
@@ -4265,30 +4262,30 @@
       <c r="CF21" s="27"/>
     </row>
     <row r="22" spans="1:84" s="9" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="213"/>
-      <c r="C22" s="213"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="212"/>
       <c r="D22" s="85"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="227"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="27"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="256"/>
+      <c r="K22" s="25"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
       <c r="N22" s="27"/>
-      <c r="O22" s="250"/>
+      <c r="O22" s="227"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="69"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
-      <c r="T22" s="253"/>
+      <c r="T22" s="230"/>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
       <c r="W22" s="25"/>
       <c r="X22" s="27"/>
-      <c r="Y22" s="247"/>
+      <c r="Y22" s="224"/>
       <c r="Z22" s="32"/>
       <c r="AA22" s="32"/>
       <c r="AB22" s="32"/>
@@ -4350,30 +4347,30 @@
       <c r="CF22" s="27"/>
     </row>
     <row r="23" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="213"/>
-      <c r="C23" s="214"/>
-      <c r="D23" s="214"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="227"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="256"/>
+      <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
       <c r="N23" s="27"/>
-      <c r="O23" s="250"/>
+      <c r="O23" s="227"/>
       <c r="P23" s="28"/>
       <c r="Q23" s="69"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
-      <c r="T23" s="253"/>
+      <c r="T23" s="230"/>
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
       <c r="X23" s="27"/>
-      <c r="Y23" s="247"/>
+      <c r="Y23" s="224"/>
       <c r="Z23" s="32"/>
       <c r="AA23" s="32"/>
       <c r="AB23" s="32"/>
@@ -4435,30 +4432,30 @@
       <c r="CF23" s="27"/>
     </row>
     <row r="24" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="213"/>
-      <c r="C24" s="214"/>
-      <c r="D24" s="214"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="213"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
+      <c r="F24" s="227"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
       <c r="I24" s="38"/>
       <c r="J24" s="107"/>
-      <c r="K24" s="256"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="250"/>
+      <c r="O24" s="227"/>
       <c r="P24" s="107"/>
       <c r="Q24" s="108"/>
       <c r="R24" s="37"/>
       <c r="S24" s="37"/>
-      <c r="T24" s="253"/>
+      <c r="T24" s="230"/>
       <c r="U24" s="109"/>
       <c r="V24" s="37"/>
       <c r="W24" s="110"/>
       <c r="X24" s="38"/>
-      <c r="Y24" s="247"/>
+      <c r="Y24" s="224"/>
       <c r="Z24" s="39"/>
       <c r="AA24" s="39"/>
       <c r="AB24" s="39"/>
@@ -4520,30 +4517,30 @@
       <c r="CF24" s="38"/>
     </row>
     <row r="25" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="225"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="214"/>
+      <c r="B25" s="245"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="213"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="16"/>
+      <c r="F25" s="227"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="10"/>
       <c r="J25" s="24"/>
-      <c r="K25" s="256"/>
+      <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="250"/>
+      <c r="O25" s="227"/>
       <c r="P25" s="97"/>
       <c r="Q25" s="98"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="253"/>
+      <c r="T25" s="230"/>
       <c r="U25" s="99"/>
       <c r="V25" s="16"/>
       <c r="W25" s="100"/>
       <c r="X25" s="10"/>
-      <c r="Y25" s="247"/>
+      <c r="Y25" s="224"/>
       <c r="Z25" s="18"/>
       <c r="AA25" s="18"/>
       <c r="AB25" s="18"/>
@@ -4605,30 +4602,30 @@
       <c r="CF25" s="10"/>
     </row>
     <row r="26" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="225"/>
-      <c r="C26" s="214"/>
-      <c r="D26" s="214"/>
+      <c r="B26" s="245"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="213"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="16"/>
+      <c r="F26" s="227"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="10"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="256"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="250"/>
+      <c r="O26" s="227"/>
       <c r="P26" s="97"/>
       <c r="Q26" s="98"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
-      <c r="T26" s="253"/>
+      <c r="T26" s="230"/>
       <c r="U26" s="99"/>
       <c r="V26" s="16"/>
       <c r="W26" s="100"/>
       <c r="X26" s="10"/>
-      <c r="Y26" s="247"/>
+      <c r="Y26" s="224"/>
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
       <c r="AB26" s="18"/>
@@ -4690,30 +4687,30 @@
       <c r="CF26" s="10"/>
     </row>
     <row r="27" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="224"/>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214"/>
+      <c r="B27" s="244"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="213"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="227"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="3"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="256"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="250"/>
+      <c r="O27" s="227"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="68"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="253"/>
+      <c r="T27" s="230"/>
       <c r="U27" s="14"/>
       <c r="V27" s="4"/>
       <c r="W27" s="15"/>
       <c r="X27" s="3"/>
-      <c r="Y27" s="247"/>
+      <c r="Y27" s="224"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
@@ -4775,30 +4772,30 @@
       <c r="CF27" s="3"/>
     </row>
     <row r="28" spans="1:84" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="225"/>
-      <c r="C28" s="214"/>
-      <c r="D28" s="214"/>
+      <c r="B28" s="245"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="213"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="228"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="27"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="257"/>
+      <c r="K28" s="25"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
       <c r="N28" s="27"/>
-      <c r="O28" s="251"/>
+      <c r="O28" s="228"/>
       <c r="P28" s="28"/>
       <c r="Q28" s="69"/>
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
-      <c r="T28" s="254"/>
+      <c r="T28" s="231"/>
       <c r="U28" s="29"/>
       <c r="V28" s="25"/>
       <c r="W28" s="30"/>
       <c r="X28" s="27"/>
-      <c r="Y28" s="248"/>
+      <c r="Y28" s="225"/>
       <c r="Z28" s="32"/>
       <c r="AA28" s="32"/>
       <c r="AB28" s="32"/>
@@ -4860,11 +4857,11 @@
       <c r="CF28" s="27"/>
     </row>
     <row r="29" spans="1:84" s="9" customFormat="1" ht="32.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="226"/>
+      <c r="B29" s="246"/>
       <c r="C29" s="51"/>
       <c r="D29" s="51"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="4" t="s">
         <v>1</v>
       </c>
@@ -4949,11 +4946,11 @@
       <c r="CF29" s="3"/>
     </row>
     <row r="30" spans="1:84" s="9" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="227"/>
+      <c r="B30" s="247"/>
       <c r="C30" s="50"/>
       <c r="D30" s="52"/>
       <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="54"/>
       <c r="H30" s="54"/>
       <c r="I30" s="55"/>
@@ -5038,24 +5035,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Y10:Y28"/>
-    <mergeCell ref="O10:O28"/>
-    <mergeCell ref="T10:T28"/>
-    <mergeCell ref="K10:K28"/>
-    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="B2:BG2"/>
     <mergeCell ref="CB7:CF7"/>
     <mergeCell ref="E7:O7"/>
     <mergeCell ref="P7:AK7"/>
     <mergeCell ref="AL7:BF7"/>
     <mergeCell ref="BG7:CA7"/>
+    <mergeCell ref="Y10:Y28"/>
+    <mergeCell ref="O10:O28"/>
+    <mergeCell ref="T10:T28"/>
+    <mergeCell ref="B10:B21"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="F10:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.11811023622047245" header="0.51181102362204722" footer="0.51181102362204722"/>
